--- a/fonts/fonts.xlsx
+++ b/fonts/fonts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\polyZ\Documents\wifiSLAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\polyZ\Documents\wifiSLAM\fonts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC55CB4D-EA57-4789-9AA4-1FEA6BC2D5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DDAF6-00C2-4E3E-BBCE-5D1911466A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{64601A2C-3A20-447B-8D46-B4E88D87A8FE}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -230,17 +252,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -591,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9287846-190F-4971-8F05-146BCFC46803}">
-  <dimension ref="A1:MF11"/>
+  <dimension ref="A1:MF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="LJ6" sqref="LJ6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -604,1315 +616,1315 @@
   <sheetData>
     <row r="1" spans="1:344" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
-        <f>DEC2HEX(A3*8+A4*4+A5*2+A6)</f>
+        <f>DEC2HEX(A10*8+A9*4+A8*2+A7)</f>
         <v>0</v>
       </c>
       <c r="B1" t="str">
-        <f t="shared" ref="B1:H1" si="0">DEC2HEX(B3*8+B4*4+B5*2+B6)</f>
-        <v>3</v>
+        <f t="shared" ref="B1:BM1" si="0">DEC2HEX(B10*8+B9*4+B8*2+B7)</f>
+        <v>7</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="E1" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T1" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="U1" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="V1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X1" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Y1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z1" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA1" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="AB1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AE1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="AF1" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH1" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI1" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AK1" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AL1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="AM1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="AN1" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AO1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP1" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="AR1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AS1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AT1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AU1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="AV1" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AW1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX1" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AY1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BA1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BB1" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BC1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="BD1" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BE1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI1" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="BJ1" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="BK1" t="str">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I1" t="str">
-        <f>DEC2HEX(I3*8+I4*4+I5*2+I6)</f>
-        <v>0</v>
-      </c>
-      <c r="J1" t="str">
-        <f t="shared" ref="J1:P1" si="1">DEC2HEX(J3*8+J4*4+J5*2+J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K1" t="str">
+      <c r="BL1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM1" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN1" t="str">
+        <f t="shared" ref="BN1:DY1" si="1">DEC2HEX(BN10*8+BN9*4+BN8*2+BN7)</f>
+        <v>6</v>
+      </c>
+      <c r="BO1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L1" t="str">
+        <v>F</v>
+      </c>
+      <c r="BP1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M1" t="str">
+        <v>9</v>
+      </c>
+      <c r="BQ1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BR1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BS1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="BT1" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BU1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BX1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BY1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BZ1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CA1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="CB1" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="CC1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="CE1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="CF1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="CG1" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N1" t="str">
+      <c r="CH1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="CI1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="CJ1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="CK1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="CM1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="CN1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CO1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CP1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CQ1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="CR1" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="CS1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O1" t="str">
+      <c r="CU1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="CV1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="CW1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="CX1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="CY1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="CZ1" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="DA1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="DC1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="DD1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="DE1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="DF1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="DG1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="DH1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P1" t="str">
+      <c r="DI1" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q1" t="str">
-        <f>DEC2HEX(Q3*8+Q4*4+Q5*2+Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="R1" t="str">
-        <f>DEC2HEX(R3*8+R4*4+R5*2+R6)</f>
-        <v>3</v>
-      </c>
-      <c r="S1" t="str">
-        <f>DEC2HEX(S3*8+S4*4+S5*2+S6)</f>
-        <v>6</v>
-      </c>
-      <c r="T1" t="str">
-        <f>DEC2HEX(T3*8+T4*4+T5*2+T6)</f>
+      <c r="DJ1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="DK1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="DL1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="DM1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="DN1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="DO1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="DP1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="DQ1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="DS1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="DT1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DU1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DV1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DW1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="DX1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ1" t="str">
+        <f t="shared" ref="DZ1:GK1" si="2">DEC2HEX(DZ10*8+DZ9*4+DZ8*2+DZ7)</f>
+        <v>7</v>
+      </c>
+      <c r="EA1" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="EB1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="EC1" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="ED1" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="EE1" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="EF1" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="EG1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="EI1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="EJ1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EK1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EL1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="EM1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="EN1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="EO1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="ER1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="ES1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="ET1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="EU1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="EV1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY1" t="str">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U1" t="str">
-        <f>DEC2HEX(U3*8+U4*4+U5*2+U6)</f>
+      <c r="EZ1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FA1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FB1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FC1" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="FD1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FG1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FH1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FI1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FJ1" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="FK1" t="str">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="V1" t="str">
-        <f>DEC2HEX(V3*8+V4*4+V5*2+V6)</f>
-        <v>4</v>
-      </c>
-      <c r="W1" t="str">
-        <f>DEC2HEX(W3*8+W4*4+W5*2+W6)</f>
-        <v>7</v>
-      </c>
-      <c r="X1" t="str">
-        <f>DEC2HEX(X3*8+X4*4+X5*2+X6)</f>
-        <v>3</v>
-      </c>
-      <c r="Y1" t="str">
-        <f>DEC2HEX(Y3*8+Y4*4+Y5*2+Y6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1" t="str">
-        <f t="shared" ref="Z1:AF1" si="2">DEC2HEX(Z3*8+Z4*4+Z5*2+Z6)</f>
-        <v>2</v>
-      </c>
-      <c r="AA1" t="str">
+      <c r="FL1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FM1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FO1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FP1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FQ1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FR1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FS1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FT1" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="FU1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FW1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="FX1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="GB1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="GC1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="GE1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="GF1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="GH1" t="str">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="GI1" t="str">
         <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="GJ1" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="GK1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL1" t="str">
+        <f t="shared" ref="GL1:IW1" si="3">DEC2HEX(GL10*8+GL9*4+GL8*2+GL7)</f>
+        <v>7</v>
+      </c>
+      <c r="GM1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="GN1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="GO1" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="GP1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="GQ1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="GR1" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="GS1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GT1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="GU1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="GV1" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="GW1" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="GX1" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="GY1" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="GZ1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HA1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HB1" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="HC1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="HD1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="HE1" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="HF1" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="HG1" t="str">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AC1" t="str">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AD1" t="str">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AE1" t="str">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AF1" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>DEC2HEX(AG3*8+AG4*4+AG5*2+AG6)</f>
-        <v>0</v>
-      </c>
-      <c r="AH1" t="str">
-        <f t="shared" ref="AH1:AN1" si="3">DEC2HEX(AH3*8+AH4*4+AH5*2+AH6)</f>
-        <v>0</v>
-      </c>
-      <c r="AI1" t="str">
+      <c r="HH1" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ1" t="str">
+        <v>B</v>
+      </c>
+      <c r="HI1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HJ1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="HK1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="HL1" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="HM1" t="str">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="HN1" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="HO1" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="HP1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="HQ1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HR1" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="HS1" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="HT1" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="HU1" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="HV1" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="HW1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="HX1" t="str">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="HY1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HZ1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IA1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IB1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="IC1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="ID1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="IE1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IF1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IG1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IH1" t="str">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="II1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="IJ1" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="IK1" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="IL1" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="IM1" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="IN1" t="str">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="IO1" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO1" t="str">
-        <f>DEC2HEX(AO3*8+AO4*4+AO5*2+AO6)</f>
-        <v>0</v>
-      </c>
-      <c r="AP1" t="str">
-        <f t="shared" ref="AP1:AV1" si="4">DEC2HEX(AP3*8+AP4*4+AP5*2+AP6)</f>
-        <v>7</v>
-      </c>
-      <c r="AQ1" t="str">
+      <c r="IP1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IQ1" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="IR1" t="str">
+        <f t="shared" si="3"/>
+        <v>E</v>
+      </c>
+      <c r="IS1" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="IT1" t="str">
+        <f t="shared" si="3"/>
+        <v>E</v>
+      </c>
+      <c r="IU1" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="IV1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IW1" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="IX1" t="str">
+        <f t="shared" ref="IX1:LI1" si="4">DEC2HEX(IX10*8+IX9*4+IX8*2+IX7)</f>
+        <v>1</v>
+      </c>
+      <c r="IY1" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AR1" t="str">
+        <v>6</v>
+      </c>
+      <c r="IZ1" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AS1" t="str">
+        <v>F</v>
+      </c>
+      <c r="JA1" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AT1" t="str">
+        <v>1</v>
+      </c>
+      <c r="JB1" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AU1" t="str">
+        <v>F</v>
+      </c>
+      <c r="JC1" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AV1" t="str">
+        <v>6</v>
+      </c>
+      <c r="JD1" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AW1" t="str">
-        <f>DEC2HEX(AW3*8+AW4*4+AW5*2+AW6)</f>
-        <v>0</v>
-      </c>
-      <c r="AX1" t="str">
-        <f t="shared" ref="AX1:BD1" si="5">DEC2HEX(AX3*8+AX4*4+AX5*2+AX6)</f>
-        <v>3</v>
-      </c>
-      <c r="AY1" t="str">
+        <v>1</v>
+      </c>
+      <c r="JE1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JF1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="JG1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="JH1" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="JI1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JJ1" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="JK1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="JL1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="JM1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JN1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JO1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JP1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JQ1" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="JR1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="JS1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JT1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JU1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="JV1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="JW1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="JX1" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="JY1" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="JZ1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KA1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KB1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KC1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KD1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KE1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KF1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KG1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KH1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KI1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KJ1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KK1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KL1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KM1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KN1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KO1" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="KP1" t="str">
+        <f t="shared" si="4"/>
+        <v>E</v>
+      </c>
+      <c r="KQ1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KR1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KS1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KT1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KU1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KV1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KW1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="KX1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KY1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="KZ1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LA1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LB1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LC1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LD1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LE1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LF1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LG1" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="LH1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LI1" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="LJ1" t="str">
+        <f t="shared" ref="LJ1:LN1" si="5">DEC2HEX(LJ10*8+LJ9*4+LJ8*2+LJ7)</f>
+        <v>0</v>
+      </c>
+      <c r="LK1" t="str">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AZ1" t="str">
+        <v>0</v>
+      </c>
+      <c r="LL1" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BA1" t="str">
+        <v>0</v>
+      </c>
+      <c r="LM1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BB1" t="str">
+        <v>0</v>
+      </c>
+      <c r="LN1" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BC1" t="str">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BD1" t="str">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BE1" t="str">
-        <f>DEC2HEX(BE3*8+BE4*4+BE5*2+BE6)</f>
-        <v>0</v>
-      </c>
-      <c r="BF1" t="str">
-        <f t="shared" ref="BF1:BL1" si="6">DEC2HEX(BF3*8+BF4*4+BF5*2+BF6)</f>
-        <v>0</v>
-      </c>
-      <c r="BG1" t="str">
+        <v>0</v>
+      </c>
+      <c r="LO1" t="str">
+        <f t="shared" ref="LJ1:LP1" si="6">DEC2HEX(LO3*8+LO4*4+LO5*2+LO6)</f>
+        <v>0</v>
+      </c>
+      <c r="LP1" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="BH1" t="str">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BI1" t="str">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BJ1" t="str">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BK1" t="str">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="BL1" t="str">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="BM1" t="str">
-        <f>DEC2HEX(BM3*8+BM4*4+BM5*2+BM6)</f>
-        <v>0</v>
-      </c>
-      <c r="BN1" t="str">
-        <f t="shared" ref="BN1:BT1" si="7">DEC2HEX(BN3*8+BN4*4+BN5*2+BN6)</f>
-        <v>3</v>
-      </c>
-      <c r="BO1" t="str">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BP1" t="str">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="BQ1" t="str">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="BR1" t="str">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="BS1" t="str">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="BT1" t="str">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="BU1" t="str">
-        <f>DEC2HEX(BU3*8+BU4*4+BU5*2+BU6)</f>
-        <v>0</v>
-      </c>
-      <c r="BV1" t="str">
-        <f t="shared" ref="BV1:CB1" si="8">DEC2HEX(BV3*8+BV4*4+BV5*2+BV6)</f>
-        <v>3</v>
-      </c>
-      <c r="BW1" t="str">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="BX1" t="str">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="BY1" t="str">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="BZ1" t="str">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="CA1" t="str">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="CB1" t="str">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="CC1" t="str">
-        <f>DEC2HEX(CC3*8+CC4*4+CC5*2+CC6)</f>
-        <v>0</v>
-      </c>
-      <c r="CD1" t="str">
-        <f t="shared" ref="CD1:CJ1" si="9">DEC2HEX(CD3*8+CD4*4+CD5*2+CD6)</f>
-        <v>0</v>
-      </c>
-      <c r="CE1" t="str">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="CF1" t="str">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="CG1" t="str">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="CH1" t="str">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="CI1" t="str">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="CJ1" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CK1" t="str">
-        <f>DEC2HEX(CK3*8+CK4*4+CK5*2+CK6)</f>
-        <v>0</v>
-      </c>
-      <c r="CL1" t="str">
-        <f t="shared" ref="CL1:CR1" si="10">DEC2HEX(CL3*8+CL4*4+CL5*2+CL6)</f>
-        <v>7</v>
-      </c>
-      <c r="CM1" t="str">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="CN1" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="CO1" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="CP1" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="CQ1" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="CR1" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="CS1" t="str">
-        <f>DEC2HEX(CS3*8+CS4*4+CS5*2+CS6)</f>
-        <v>0</v>
-      </c>
-      <c r="CT1" t="str">
-        <f t="shared" ref="CT1:CZ1" si="11">DEC2HEX(CT3*8+CT4*4+CT5*2+CT6)</f>
-        <v>3</v>
-      </c>
-      <c r="CU1" t="str">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="CV1" t="str">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="CW1" t="str">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="CX1" t="str">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="CY1" t="str">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="CZ1" t="str">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="DA1" t="str">
-        <f>DEC2HEX(DA3*8+DA4*4+DA5*2+DA6)</f>
-        <v>0</v>
-      </c>
-      <c r="DB1" t="str">
-        <f t="shared" ref="DB1:DH1" si="12">DEC2HEX(DB3*8+DB4*4+DB5*2+DB6)</f>
-        <v>7</v>
-      </c>
-      <c r="DC1" t="str">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="DD1" t="str">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="DE1" t="str">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="DF1" t="str">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="DG1" t="str">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="DH1" t="str">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="DI1" t="str">
-        <f>DEC2HEX(DI3*8+DI4*4+DI5*2+DI6)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ1" t="str">
-        <f t="shared" ref="DJ1:DP1" si="13">DEC2HEX(DJ3*8+DJ4*4+DJ5*2+DJ6)</f>
-        <v>7</v>
-      </c>
-      <c r="DK1" t="str">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="DL1" t="str">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="DM1" t="str">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="DN1" t="str">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="DO1" t="str">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="DP1" t="str">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="DQ1" t="str">
-        <f>DEC2HEX(DQ3*8+DQ4*4+DQ5*2+DQ6)</f>
-        <v>0</v>
-      </c>
-      <c r="DR1" t="str">
-        <f t="shared" ref="DR1:DX1" si="14">DEC2HEX(DR3*8+DR4*4+DR5*2+DR6)</f>
-        <v>7</v>
-      </c>
-      <c r="DS1" t="str">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="DT1" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="DU1" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="DV1" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="DW1" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="DX1" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="DY1" t="str">
-        <f>DEC2HEX(DY3*8+DY4*4+DY5*2+DY6)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ1" t="str">
-        <f t="shared" ref="DZ1:EF1" si="15">DEC2HEX(DZ3*8+DZ4*4+DZ5*2+DZ6)</f>
-        <v>3</v>
-      </c>
-      <c r="EA1" t="str">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="EB1" t="str">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="EC1" t="str">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="ED1" t="str">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="EE1" t="str">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="EF1" t="str">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="EG1" t="str">
-        <f>DEC2HEX(EG3*8+EG4*4+EG5*2+EG6)</f>
-        <v>0</v>
-      </c>
-      <c r="EH1" t="str">
-        <f t="shared" ref="EH1:EN1" si="16">DEC2HEX(EH3*8+EH4*4+EH5*2+EH6)</f>
-        <v>7</v>
-      </c>
-      <c r="EI1" t="str">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="EJ1" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="EK1" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="EL1" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="EM1" t="str">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="EN1" t="str">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="EO1" t="str">
-        <f>DEC2HEX(EO3*8+EO4*4+EO5*2+EO6)</f>
-        <v>0</v>
-      </c>
-      <c r="EP1" t="str">
-        <f t="shared" ref="EP1:EV1" si="17">DEC2HEX(EP3*8+EP4*4+EP5*2+EP6)</f>
-        <v>0</v>
-      </c>
-      <c r="EQ1" t="str">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="ER1" t="str">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="ES1" t="str">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="ET1" t="str">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="EU1" t="str">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="EV1" t="str">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="EW1" t="str">
-        <f>DEC2HEX(EW3*8+EW4*4+EW5*2+EW6)</f>
-        <v>0</v>
-      </c>
-      <c r="EX1" t="str">
-        <f t="shared" ref="EX1:FD1" si="18">DEC2HEX(EX3*8+EX4*4+EX5*2+EX6)</f>
-        <v>4</v>
-      </c>
-      <c r="EY1" t="str">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="EZ1" t="str">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="FA1" t="str">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="FB1" t="str">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="FC1" t="str">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="FD1" t="str">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="FE1" t="str">
-        <f>DEC2HEX(FE3*8+FE4*4+FE5*2+FE6)</f>
-        <v>0</v>
-      </c>
-      <c r="FF1" t="str">
-        <f t="shared" ref="FF1:FL1" si="19">DEC2HEX(FF3*8+FF4*4+FF5*2+FF6)</f>
-        <v>7</v>
-      </c>
-      <c r="FG1" t="str">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="FH1" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="FI1" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="FJ1" t="str">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="FK1" t="str">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="FL1" t="str">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="FM1" t="str">
-        <f>DEC2HEX(FM3*8+FM4*4+FM5*2+FM6)</f>
-        <v>0</v>
-      </c>
-      <c r="FN1" t="str">
-        <f t="shared" ref="FN1:FT1" si="20">DEC2HEX(FN3*8+FN4*4+FN5*2+FN6)</f>
-        <v>7</v>
-      </c>
-      <c r="FO1" t="str">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="FP1" t="str">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="FQ1" t="str">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="FR1" t="str">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="FS1" t="str">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="FT1" t="str">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="FU1" t="str">
-        <f>DEC2HEX(FU3*8+FU4*4+FU5*2+FU6)</f>
-        <v>0</v>
-      </c>
-      <c r="FV1" t="str">
-        <f t="shared" ref="FV1:GB1" si="21">DEC2HEX(FV3*8+FV4*4+FV5*2+FV6)</f>
-        <v>7</v>
-      </c>
-      <c r="FW1" t="str">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="FX1" t="str">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="FY1" t="str">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="FZ1" t="str">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="GA1" t="str">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="GB1" t="str">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="GC1" t="str">
-        <f>DEC2HEX(GC3*8+GC4*4+GC5*2+GC6)</f>
-        <v>0</v>
-      </c>
-      <c r="GD1" t="str">
-        <f t="shared" ref="GD1:GJ1" si="22">DEC2HEX(GD3*8+GD4*4+GD5*2+GD6)</f>
-        <v>7</v>
-      </c>
-      <c r="GE1" t="str">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="GF1" t="str">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="GG1" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="GH1" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="GI1" t="str">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="GJ1" t="str">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="GK1" t="str">
-        <f>DEC2HEX(GK3*8+GK4*4+GK5*2+GK6)</f>
-        <v>0</v>
-      </c>
-      <c r="GL1" t="str">
-        <f t="shared" ref="GL1:GR1" si="23">DEC2HEX(GL3*8+GL4*4+GL5*2+GL6)</f>
-        <v>3</v>
-      </c>
-      <c r="GM1" t="str">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="GN1" t="str">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="GO1" t="str">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="GP1" t="str">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="GQ1" t="str">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="GR1" t="str">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="GS1" t="str">
-        <f>DEC2HEX(GS3*8+GS4*4+GS5*2+GS6)</f>
-        <v>0</v>
-      </c>
-      <c r="GT1" t="str">
-        <f t="shared" ref="GT1:GZ1" si="24">DEC2HEX(GT3*8+GT4*4+GT5*2+GT6)</f>
-        <v>7</v>
-      </c>
-      <c r="GU1" t="str">
-        <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-      <c r="GV1" t="str">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="GW1" t="str">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="GX1" t="str">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="GY1" t="str">
-        <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-      <c r="GZ1" t="str">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="HA1" t="str">
-        <f>DEC2HEX(HA3*8+HA4*4+HA5*2+HA6)</f>
-        <v>0</v>
-      </c>
-      <c r="HB1" t="str">
-        <f t="shared" ref="HB1:HH1" si="25">DEC2HEX(HB3*8+HB4*4+HB5*2+HB6)</f>
-        <v>3</v>
-      </c>
-      <c r="HC1" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="HD1" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="HE1" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="HF1" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="HG1" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="HH1" t="str">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="HI1" t="str">
-        <f>DEC2HEX(HI3*8+HI4*4+HI5*2+HI6)</f>
-        <v>0</v>
-      </c>
-      <c r="HJ1" t="str">
-        <f t="shared" ref="HJ1:HP1" si="26">DEC2HEX(HJ3*8+HJ4*4+HJ5*2+HJ6)</f>
-        <v>7</v>
-      </c>
-      <c r="HK1" t="str">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-      <c r="HL1" t="str">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="HM1" t="str">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="HN1" t="str">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="HO1" t="str">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-      <c r="HP1" t="str">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="HQ1" t="str">
-        <f>DEC2HEX(HQ3*8+HQ4*4+HQ5*2+HQ6)</f>
-        <v>0</v>
-      </c>
-      <c r="HR1" t="str">
-        <f t="shared" ref="HR1:HX1" si="27">DEC2HEX(HR3*8+HR4*4+HR5*2+HR6)</f>
-        <v>3</v>
-      </c>
-      <c r="HS1" t="str">
-        <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="HT1" t="str">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="HU1" t="str">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="HV1" t="str">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="HW1" t="str">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="HX1" t="str">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="HY1" t="str">
-        <f>DEC2HEX(HY3*8+HY4*4+HY5*2+HY6)</f>
-        <v>0</v>
-      </c>
-      <c r="HZ1" t="str">
-        <f t="shared" ref="HZ1:IF1" si="28">DEC2HEX(HZ3*8+HZ4*4+HZ5*2+HZ6)</f>
-        <v>4</v>
-      </c>
-      <c r="IA1" t="str">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="IB1" t="str">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="IC1" t="str">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="ID1" t="str">
-        <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="IE1" t="str">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="IF1" t="str">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="IG1" t="str">
-        <f>DEC2HEX(IG3*8+IG4*4+IG5*2+IG6)</f>
-        <v>0</v>
-      </c>
-      <c r="IH1" t="str">
-        <f t="shared" ref="IH1:IN1" si="29">DEC2HEX(IH3*8+IH4*4+IH5*2+IH6)</f>
-        <v>7</v>
-      </c>
-      <c r="II1" t="str">
-        <f t="shared" si="29"/>
-        <v>7</v>
-      </c>
-      <c r="IJ1" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="IK1" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="IL1" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="IM1" t="str">
-        <f t="shared" si="29"/>
-        <v>7</v>
-      </c>
-      <c r="IN1" t="str">
-        <f t="shared" si="29"/>
-        <v>7</v>
-      </c>
-      <c r="IO1" t="str">
-        <f>DEC2HEX(IO3*8+IO4*4+IO5*2+IO6)</f>
-        <v>0</v>
-      </c>
-      <c r="IP1" t="str">
-        <f t="shared" ref="IP1:IV1" si="30">DEC2HEX(IP3*8+IP4*4+IP5*2+IP6)</f>
-        <v>7</v>
-      </c>
-      <c r="IQ1" t="str">
-        <f t="shared" si="30"/>
-        <v>7</v>
-      </c>
-      <c r="IR1" t="str">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="IS1" t="str">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="IT1" t="str">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="IU1" t="str">
-        <f t="shared" si="30"/>
-        <v>7</v>
-      </c>
-      <c r="IV1" t="str">
-        <f t="shared" si="30"/>
-        <v>7</v>
-      </c>
-      <c r="IW1" t="str">
-        <f>DEC2HEX(IW3*8+IW4*4+IW5*2+IW6)</f>
-        <v>0</v>
-      </c>
-      <c r="IX1" t="str">
-        <f t="shared" ref="IX1:JD1" si="31">DEC2HEX(IX3*8+IX4*4+IX5*2+IX6)</f>
-        <v>7</v>
-      </c>
-      <c r="IY1" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="IZ1" t="str">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="JA1" t="str">
-        <f t="shared" si="31"/>
-        <v>7</v>
-      </c>
-      <c r="JB1" t="str">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="JC1" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="JD1" t="str">
-        <f t="shared" si="31"/>
-        <v>7</v>
-      </c>
-      <c r="JE1" t="str">
-        <f>DEC2HEX(JE3*8+JE4*4+JE5*2+JE6)</f>
-        <v>0</v>
-      </c>
-      <c r="JF1" t="str">
-        <f t="shared" ref="JF1:JL1" si="32">DEC2HEX(JF3*8+JF4*4+JF5*2+JF6)</f>
-        <v>6</v>
-      </c>
-      <c r="JG1" t="str">
-        <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="JH1" t="str">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="JI1" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="JJ1" t="str">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="JK1" t="str">
-        <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="JL1" t="str">
-        <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="JM1" t="str">
-        <f>DEC2HEX(JM3*8+JM4*4+JM5*2+JM6)</f>
-        <v>0</v>
-      </c>
-      <c r="JN1" t="str">
-        <f t="shared" ref="JN1:JT1" si="33">DEC2HEX(JN3*8+JN4*4+JN5*2+JN6)</f>
-        <v>6</v>
-      </c>
-      <c r="JO1" t="str">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="JP1" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="JQ1" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="JR1" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="JS1" t="str">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="JT1" t="str">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="JU1" t="str">
-        <f>DEC2HEX(JU3*8+JU4*4+JU5*2+JU6)</f>
-        <v>0</v>
-      </c>
-      <c r="JV1" t="str">
-        <f t="shared" ref="JV1:KB1" si="34">DEC2HEX(JV3*8+JV4*4+JV5*2+JV6)</f>
-        <v>6</v>
-      </c>
-      <c r="JW1" t="str">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="JX1" t="str">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="JY1" t="str">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="JZ1" t="str">
-        <f t="shared" si="34"/>
-        <v>7</v>
-      </c>
-      <c r="KA1" t="str">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="KB1" t="str">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="KC1" t="str">
-        <f>DEC2HEX(KC3*8+KC4*4+KC5*2+KC6)</f>
-        <v>0</v>
-      </c>
-      <c r="KD1" t="str">
-        <f t="shared" ref="KD1:KJ1" si="35">DEC2HEX(KD3*8+KD4*4+KD5*2+KD6)</f>
-        <v>0</v>
-      </c>
-      <c r="KE1" t="str">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="KF1" t="str">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="KG1" t="str">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="KH1" t="str">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="KI1" t="str">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="KJ1" t="str">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="KK1" t="str">
-        <f>DEC2HEX(KK3*8+KK4*4+KK5*2+KK6)</f>
-        <v>0</v>
-      </c>
-      <c r="KL1" t="str">
-        <f t="shared" ref="KL1:KR1" si="36">DEC2HEX(KL3*8+KL4*4+KL5*2+KL6)</f>
-        <v>0</v>
-      </c>
-      <c r="KM1" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="KN1" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="KO1" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="KP1" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="KQ1" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="KR1" t="str">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="KS1" t="str">
-        <f>DEC2HEX(KS3*8+KS4*4+KS5*2+KS6)</f>
-        <v>0</v>
-      </c>
-      <c r="KT1" t="str">
-        <f t="shared" ref="KT1:KZ1" si="37">DEC2HEX(KT3*8+KT4*4+KT5*2+KT6)</f>
-        <v>0</v>
-      </c>
-      <c r="KU1" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="KV1" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="KW1" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="KX1" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="KY1" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="KZ1" t="str">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="LA1" t="str">
-        <f>DEC2HEX(LA3*8+LA4*4+LA5*2+LA6)</f>
-        <v>0</v>
-      </c>
-      <c r="LB1" t="str">
-        <f t="shared" ref="LB1:LH1" si="38">DEC2HEX(LB3*8+LB4*4+LB5*2+LB6)</f>
-        <v>0</v>
-      </c>
-      <c r="LC1" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="LD1" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="LE1" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="LF1" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="LG1" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="LH1" t="str">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="LI1" t="str">
-        <f>DEC2HEX(LI3*8+LI4*4+LI5*2+LI6)</f>
-        <v>0</v>
-      </c>
-      <c r="LJ1" t="str">
-        <f t="shared" ref="LJ1:LP1" si="39">DEC2HEX(LJ3*8+LJ4*4+LJ5*2+LJ6)</f>
-        <v>0</v>
-      </c>
-      <c r="LK1" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="LL1" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="LM1" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="LN1" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="LO1" t="str">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="LP1" t="str">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="LQ1" t="str">
@@ -1920,31 +1932,31 @@
         <v>0</v>
       </c>
       <c r="LR1" t="str">
-        <f t="shared" ref="LR1:LX1" si="40">DEC2HEX(LR3*8+LR4*4+LR5*2+LR6)</f>
+        <f t="shared" ref="LR1:LX1" si="7">DEC2HEX(LR3*8+LR4*4+LR5*2+LR6)</f>
         <v>0</v>
       </c>
       <c r="LS1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="LT1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="LU1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="LV1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="LW1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="LX1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="LY1" t="str">
@@ -1952,1345 +1964,1345 @@
         <v>0</v>
       </c>
       <c r="LZ1" t="str">
-        <f t="shared" ref="LZ1:MF1" si="41">DEC2HEX(LZ3*8+LZ4*4+LZ5*2+LZ6)</f>
+        <f t="shared" ref="LZ1:MF1" si="8">DEC2HEX(LZ3*8+LZ4*4+LZ5*2+LZ6)</f>
         <v>0</v>
       </c>
       <c r="MA1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="MB1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="MC1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="MD1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="ME1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="MF1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:344" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
-        <f>DEC2HEX(A7*8+A8*4+A9*2+A10)</f>
+        <f>DEC2HEX(A6*8+A5*4+A4*2+A3)</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:H2" si="42">DEC2HEX(B7*8+B8*4+B9*2+B10)</f>
+        <f t="shared" ref="B2:BM2" si="9">DEC2HEX(B6*8+B5*4+B4*2+B3)</f>
+        <v>C</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="42"/>
-        <v>9</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="42"/>
+      <c r="O2" t="str">
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="I2" t="str">
-        <f>DEC2HEX(I7*8+I8*4+I9*2+I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:P2" si="43">DEC2HEX(J7*8+J8*4+J9*2+J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N2" t="str">
-        <f t="shared" si="43"/>
-        <v>F</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" si="43"/>
-        <v>F</v>
-      </c>
       <c r="P2" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <f>DEC2HEX(Q7*8+Q8*4+Q9*2+Q10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R2" t="str">
-        <f>DEC2HEX(R7*8+R8*4+R9*2+R10)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>C</v>
       </c>
       <c r="S2" t="str">
-        <f>DEC2HEX(S7*8+S8*4+S9*2+S10)</f>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="T2" t="str">
-        <f>DEC2HEX(T7*8+T8*4+T9*2+T10)</f>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="U2" t="str">
-        <f>DEC2HEX(U7*8+U8*4+U9*2+U10)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="V2" t="str">
-        <f>DEC2HEX(V7*8+V8*4+V9*2+V10)</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="W2" t="str">
-        <f>DEC2HEX(W7*8+W8*4+W9*2+W10)</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>E</v>
       </c>
       <c r="X2" t="str">
-        <f>DEC2HEX(X7*8+X8*4+X9*2+X10)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>C</v>
       </c>
       <c r="Y2" t="str">
-        <f>DEC2HEX(Y7*8+Y8*4+Y9*2+Y10)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z2" t="str">
-        <f t="shared" ref="Z2:AF2" si="44">DEC2HEX(Z7*8+Z8*4+Z9*2+Z10)</f>
-        <v>A</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="AA2" t="str">
-        <f t="shared" si="44"/>
-        <v>B</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="AC2" t="str">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="AD2" t="str">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="AE2" t="str">
-        <f t="shared" si="44"/>
-        <v>F</v>
+        <f t="shared" si="9"/>
+        <v>E</v>
       </c>
       <c r="AF2" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AG2" t="str">
-        <f>DEC2HEX(AG7*8+AG8*4+AG9*2+AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" t="str">
-        <f t="shared" ref="AH2:AN2" si="45">DEC2HEX(AH7*8+AH8*4+AH9*2+AH10)</f>
+      <c r="AL2" t="str">
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="AI2" t="str">
-        <f t="shared" si="45"/>
+      <c r="AM2" t="str">
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="AJ2" t="str">
-        <f t="shared" si="45"/>
+      <c r="AN2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX2" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AK2" t="str">
-        <f t="shared" si="45"/>
+      <c r="BA2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BB2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BC2" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AL2" t="str">
-        <f t="shared" si="45"/>
-        <v>F</v>
-      </c>
-      <c r="AM2" t="str">
-        <f t="shared" si="45"/>
-        <v>F</v>
-      </c>
-      <c r="AN2" t="str">
-        <f t="shared" si="45"/>
+      <c r="BD2" t="str">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BE2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BF2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BG2" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AO2" t="str">
-        <f>DEC2HEX(AO7*8+AO8*4+AO9*2+AO10)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" t="str">
-        <f t="shared" ref="AP2:AV2" si="46">DEC2HEX(AP7*8+AP8*4+AP9*2+AP10)</f>
-        <v>A</v>
-      </c>
-      <c r="AQ2" t="str">
-        <f t="shared" si="46"/>
-        <v>B</v>
-      </c>
-      <c r="AR2" t="str">
-        <f t="shared" si="46"/>
-        <v>9</v>
-      </c>
-      <c r="AS2" t="str">
-        <f t="shared" si="46"/>
-        <v>9</v>
-      </c>
-      <c r="AT2" t="str">
-        <f t="shared" si="46"/>
-        <v>9</v>
-      </c>
-      <c r="AU2" t="str">
-        <f t="shared" si="46"/>
-        <v>F</v>
-      </c>
-      <c r="AV2" t="str">
-        <f t="shared" si="46"/>
+      <c r="BH2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BI2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BJ2" t="str">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BK2" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="BL2" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="BM2" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BN2" t="str">
+        <f t="shared" ref="BN2:DY2" si="10">DEC2HEX(BN6*8+BN5*4+BN4*2+BN3)</f>
+        <v>C</v>
+      </c>
+      <c r="BO2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="BP2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BQ2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BR2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BS2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="BT2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="BU2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BV2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="BW2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="BX2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BY2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BZ2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CA2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="CB2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="CC2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CD2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CE2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="CF2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="CG2" t="str">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="AW2" t="str">
-        <f>DEC2HEX(AW7*8+AW8*4+AW9*2+AW10)</f>
-        <v>0</v>
-      </c>
-      <c r="AX2" t="str">
-        <f t="shared" ref="AX2:BD2" si="47">DEC2HEX(AX7*8+AX8*4+AX9*2+AX10)</f>
+      <c r="CH2" t="str">
+        <f t="shared" si="10"/>
         <v>E</v>
       </c>
-      <c r="AY2" t="str">
-        <f t="shared" si="47"/>
-        <v>F</v>
-      </c>
-      <c r="AZ2" t="str">
-        <f t="shared" si="47"/>
-        <v>9</v>
-      </c>
-      <c r="BA2" t="str">
-        <f t="shared" si="47"/>
-        <v>9</v>
-      </c>
-      <c r="BB2" t="str">
-        <f t="shared" si="47"/>
-        <v>9</v>
-      </c>
-      <c r="BC2" t="str">
-        <f t="shared" si="47"/>
-        <v>F</v>
-      </c>
-      <c r="BD2" t="str">
-        <f t="shared" si="47"/>
+      <c r="CI2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="CJ2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CK2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CL2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="CM2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="CN2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CO2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CP2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CQ2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CR2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="CS2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CT2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+      <c r="CU2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="CV2" t="str">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="BE2" t="str">
-        <f>DEC2HEX(BE7*8+BE8*4+BE9*2+BE10)</f>
-        <v>0</v>
-      </c>
-      <c r="BF2" t="str">
-        <f t="shared" ref="BF2:BL2" si="48">DEC2HEX(BF7*8+BF8*4+BF9*2+BF10)</f>
-        <v>0</v>
-      </c>
-      <c r="BG2" t="str">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BH2" t="str">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BI2" t="str">
-        <f t="shared" si="48"/>
-        <v>3</v>
-      </c>
-      <c r="BJ2" t="str">
-        <f t="shared" si="48"/>
-        <v>F</v>
-      </c>
-      <c r="BK2" t="str">
-        <f t="shared" si="48"/>
+      <c r="CW2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CX2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="CY2" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="CZ2" t="str">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="DA2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DB2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="DC2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="DD2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DE2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DF2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DG2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DH2" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="BL2" t="str">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BM2" t="str">
-        <f>DEC2HEX(BM7*8+BM8*4+BM9*2+BM10)</f>
-        <v>0</v>
-      </c>
-      <c r="BN2" t="str">
-        <f t="shared" ref="BN2:BT2" si="49">DEC2HEX(BN7*8+BN8*4+BN9*2+BN10)</f>
+      <c r="DI2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="DK2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="DL2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DM2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DN2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DO2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DP2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DQ2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DR2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="DS2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+      <c r="DT2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DU2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DV2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DW2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DX2" t="str">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="DY2" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="str">
+        <f t="shared" ref="DZ2:GK2" si="11">DEC2HEX(DZ6*8+DZ5*4+DZ4*2+DZ3)</f>
+        <v>C</v>
+      </c>
+      <c r="EA2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="EB2" t="str">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="BO2" t="str">
-        <f t="shared" si="49"/>
-        <v>F</v>
-      </c>
-      <c r="BP2" t="str">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="BQ2" t="str">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="BR2" t="str">
-        <f t="shared" si="49"/>
-        <v>9</v>
-      </c>
-      <c r="BS2" t="str">
-        <f t="shared" si="49"/>
-        <v>F</v>
-      </c>
-      <c r="BT2" t="str">
-        <f t="shared" si="49"/>
+      <c r="EC2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="ED2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="EE2" t="str">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="BU2" t="str">
-        <f>DEC2HEX(BU7*8+BU8*4+BU9*2+BU10)</f>
-        <v>0</v>
-      </c>
-      <c r="BV2" t="str">
-        <f t="shared" ref="BV2:CB2" si="50">DEC2HEX(BV7*8+BV8*4+BV9*2+BV10)</f>
-        <v>0</v>
-      </c>
-      <c r="BW2" t="str">
-        <f t="shared" si="50"/>
-        <v>A</v>
-      </c>
-      <c r="BX2" t="str">
-        <f t="shared" si="50"/>
-        <v>9</v>
-      </c>
-      <c r="BY2" t="str">
-        <f t="shared" si="50"/>
-        <v>9</v>
-      </c>
-      <c r="BZ2" t="str">
-        <f t="shared" si="50"/>
-        <v>9</v>
-      </c>
-      <c r="CA2" t="str">
-        <f t="shared" si="50"/>
-        <v>F</v>
-      </c>
-      <c r="CB2" t="str">
-        <f t="shared" si="50"/>
+      <c r="EF2" t="str">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="EG2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EH2" t="str">
+        <f t="shared" si="11"/>
         <v>E</v>
       </c>
-      <c r="CC2" t="str">
-        <f>DEC2HEX(CC7*8+CC8*4+CC9*2+CC10)</f>
-        <v>0</v>
-      </c>
-      <c r="CD2" t="str">
-        <f t="shared" ref="CD2:CJ2" si="51">DEC2HEX(CD7*8+CD8*4+CD9*2+CD10)</f>
-        <v>7</v>
-      </c>
-      <c r="CE2" t="str">
-        <f t="shared" si="51"/>
-        <v>F</v>
-      </c>
-      <c r="CF2" t="str">
-        <f t="shared" si="51"/>
+      <c r="EI2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="EJ2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EK2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EL2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EM2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="EN2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="EO2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EP2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EQ2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="ER2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="ES2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="ET2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="EU2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="EV2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EW2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="EX2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="EY2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="EZ2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="FA2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="FB2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FC2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FD2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="FE2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FF2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FG2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FH2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FI2" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="FJ2" t="str">
+        <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="CG2" t="str">
-        <f t="shared" si="51"/>
+      <c r="FK2" t="str">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="FL2" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="FM2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FN2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FO2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FP2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FR2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FS2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FT2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FU2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FV2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="FW2" t="str">
+        <f t="shared" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="FX2" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="FY2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="FZ2" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="GA2" t="str">
+        <f t="shared" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="GB2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="GC2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="GD2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="GE2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="GF2" t="str">
+        <f t="shared" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="GG2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="GH2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="GI2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="GJ2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="GK2" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="GL2" t="str">
+        <f t="shared" ref="GL2:IW2" si="12">DEC2HEX(GL6*8+GL5*4+GL4*2+GL3)</f>
+        <v>C</v>
+      </c>
+      <c r="GM2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GN2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GO2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GP2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GQ2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GR2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="GS2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="GT2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="GU2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="GV2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GW2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GX2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="GY2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="GZ2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="HA2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="HB2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="HC2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HD2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HE2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HF2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HG2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HH2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="HI2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="HJ2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="HK2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="HL2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HM2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HN2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HO2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="HP2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="HQ2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="HR2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="HS2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="HT2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HU2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HV2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="HW2" t="str">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="HX2" t="str">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="CH2" t="str">
-        <f t="shared" si="51"/>
+      <c r="HY2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="HZ2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="IA2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="IB2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IC2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="ID2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IE2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="IF2" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="IG2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IH2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="II2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IJ2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IK2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IL2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IM2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IN2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IO2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IP2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IQ2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IR2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IS2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IT2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IU2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IV2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="IW2" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="IX2" t="str">
+        <f t="shared" ref="IX2:LI2" si="13">DEC2HEX(IX6*8+IX5*4+IX4*2+IX3)</f>
+        <v>E</v>
+      </c>
+      <c r="IY2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="IZ2" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="JA2" t="str">
+        <f t="shared" si="13"/>
+        <v>E</v>
+      </c>
+      <c r="JB2" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="JC2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="JD2" t="str">
+        <f t="shared" si="13"/>
+        <v>E</v>
+      </c>
+      <c r="JE2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="JF2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JG2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JH2" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="JI2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="JJ2" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="JK2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JL2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JM2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="JN2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JO2" t="str">
+        <f t="shared" si="13"/>
         <v>C</v>
       </c>
-      <c r="CI2" t="str">
-        <f t="shared" si="51"/>
-        <v>F</v>
-      </c>
-      <c r="CJ2" t="str">
-        <f t="shared" si="51"/>
-        <v>7</v>
-      </c>
-      <c r="CK2" t="str">
-        <f>DEC2HEX(CK7*8+CK8*4+CK9*2+CK10)</f>
-        <v>0</v>
-      </c>
-      <c r="CL2" t="str">
-        <f t="shared" ref="CL2:CR2" si="52">DEC2HEX(CL7*8+CL8*4+CL9*2+CL10)</f>
-        <v>F</v>
-      </c>
-      <c r="CM2" t="str">
-        <f t="shared" si="52"/>
-        <v>F</v>
-      </c>
-      <c r="CN2" t="str">
-        <f t="shared" si="52"/>
-        <v>9</v>
-      </c>
-      <c r="CO2" t="str">
-        <f t="shared" si="52"/>
-        <v>9</v>
-      </c>
-      <c r="CP2" t="str">
-        <f t="shared" si="52"/>
-        <v>9</v>
-      </c>
-      <c r="CQ2" t="str">
-        <f t="shared" si="52"/>
-        <v>9</v>
-      </c>
-      <c r="CR2" t="str">
-        <f t="shared" si="52"/>
+      <c r="JP2" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="JQ2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="JR2" t="str">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="JS2" t="str">
+        <f t="shared" si="13"/>
+        <v>C</v>
+      </c>
+      <c r="JT2" t="str">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="CS2" t="str">
-        <f>DEC2HEX(CS7*8+CS8*4+CS9*2+CS10)</f>
-        <v>0</v>
-      </c>
-      <c r="CT2" t="str">
-        <f t="shared" ref="CT2:CZ2" si="53">DEC2HEX(CT7*8+CT8*4+CT9*2+CT10)</f>
+      <c r="JU2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="JV2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JW2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JX2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JY2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="JZ2" t="str">
+        <f t="shared" si="13"/>
         <v>E</v>
       </c>
-      <c r="CU2" t="str">
-        <f t="shared" si="53"/>
-        <v>7</v>
-      </c>
-      <c r="CV2" t="str">
-        <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="CW2" t="str">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="CX2" t="str">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="CY2" t="str">
-        <f t="shared" si="53"/>
-        <v>3</v>
-      </c>
-      <c r="CZ2" t="str">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="DA2" t="str">
-        <f>DEC2HEX(DA7*8+DA8*4+DA9*2+DA10)</f>
-        <v>0</v>
-      </c>
-      <c r="DB2" t="str">
-        <f t="shared" ref="DB2:DH2" si="54">DEC2HEX(DB7*8+DB8*4+DB9*2+DB10)</f>
-        <v>F</v>
-      </c>
-      <c r="DC2" t="str">
-        <f t="shared" si="54"/>
-        <v>F</v>
-      </c>
-      <c r="DD2" t="str">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="DE2" t="str">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="DF2" t="str">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="DG2" t="str">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="DH2" t="str">
-        <f t="shared" si="54"/>
-        <v>E</v>
-      </c>
-      <c r="DI2" t="str">
-        <f>DEC2HEX(DI7*8+DI8*4+DI9*2+DI10)</f>
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="str">
-        <f t="shared" ref="DJ2:DP2" si="55">DEC2HEX(DJ7*8+DJ8*4+DJ9*2+DJ10)</f>
-        <v>F</v>
-      </c>
-      <c r="DK2" t="str">
-        <f t="shared" si="55"/>
-        <v>F</v>
-      </c>
-      <c r="DL2" t="str">
-        <f t="shared" si="55"/>
-        <v>9</v>
-      </c>
-      <c r="DM2" t="str">
-        <f t="shared" si="55"/>
-        <v>9</v>
-      </c>
-      <c r="DN2" t="str">
-        <f t="shared" si="55"/>
-        <v>9</v>
-      </c>
-      <c r="DO2" t="str">
-        <f t="shared" si="55"/>
-        <v>9</v>
-      </c>
-      <c r="DP2" t="str">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="str">
-        <f>DEC2HEX(DQ7*8+DQ8*4+DQ9*2+DQ10)</f>
-        <v>0</v>
-      </c>
-      <c r="DR2" t="str">
-        <f t="shared" ref="DR2:DX2" si="56">DEC2HEX(DR7*8+DR8*4+DR9*2+DR10)</f>
-        <v>F</v>
-      </c>
-      <c r="DS2" t="str">
-        <f t="shared" si="56"/>
-        <v>F</v>
-      </c>
-      <c r="DT2" t="str">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="DU2" t="str">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="DV2" t="str">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="DW2" t="str">
-        <f t="shared" si="56"/>
-        <v>8</v>
-      </c>
-      <c r="DX2" t="str">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="DY2" t="str">
-        <f>DEC2HEX(DY7*8+DY8*4+DY9*2+DY10)</f>
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="str">
-        <f t="shared" ref="DZ2:EF2" si="57">DEC2HEX(DZ7*8+DZ8*4+DZ9*2+DZ10)</f>
-        <v>E</v>
-      </c>
-      <c r="EA2" t="str">
-        <f t="shared" si="57"/>
-        <v>7</v>
-      </c>
-      <c r="EB2" t="str">
-        <f t="shared" si="57"/>
-        <v>3</v>
-      </c>
-      <c r="EC2" t="str">
-        <f t="shared" si="57"/>
-        <v>9</v>
-      </c>
-      <c r="ED2" t="str">
-        <f t="shared" si="57"/>
-        <v>9</v>
-      </c>
-      <c r="EE2" t="str">
-        <f t="shared" si="57"/>
-        <v>B</v>
-      </c>
-      <c r="EF2" t="str">
-        <f t="shared" si="57"/>
-        <v>E</v>
-      </c>
-      <c r="EG2" t="str">
-        <f>DEC2HEX(EG7*8+EG8*4+EG9*2+EG10)</f>
-        <v>0</v>
-      </c>
-      <c r="EH2" t="str">
-        <f t="shared" ref="EH2:EN2" si="58">DEC2HEX(EH7*8+EH8*4+EH9*2+EH10)</f>
-        <v>F</v>
-      </c>
-      <c r="EI2" t="str">
-        <f t="shared" si="58"/>
-        <v>F</v>
-      </c>
-      <c r="EJ2" t="str">
-        <f t="shared" si="58"/>
-        <v>8</v>
-      </c>
-      <c r="EK2" t="str">
-        <f t="shared" si="58"/>
-        <v>8</v>
-      </c>
-      <c r="EL2" t="str">
-        <f t="shared" si="58"/>
-        <v>8</v>
-      </c>
-      <c r="EM2" t="str">
-        <f t="shared" si="58"/>
-        <v>F</v>
-      </c>
-      <c r="EN2" t="str">
-        <f t="shared" si="58"/>
-        <v>F</v>
-      </c>
-      <c r="EO2" t="str">
-        <f>DEC2HEX(EO7*8+EO8*4+EO9*2+EO10)</f>
-        <v>0</v>
-      </c>
-      <c r="EP2" t="str">
-        <f t="shared" ref="EP2:EV2" si="59">DEC2HEX(EP7*8+EP8*4+EP9*2+EP10)</f>
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="str">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="ER2" t="str">
-        <f t="shared" si="59"/>
-        <v>F</v>
-      </c>
-      <c r="ES2" t="str">
-        <f t="shared" si="59"/>
-        <v>F</v>
-      </c>
-      <c r="ET2" t="str">
-        <f t="shared" si="59"/>
-        <v>F</v>
-      </c>
-      <c r="EU2" t="str">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="EV2" t="str">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="EW2" t="str">
-        <f>DEC2HEX(EW7*8+EW8*4+EW9*2+EW10)</f>
-        <v>0</v>
-      </c>
-      <c r="EX2" t="str">
-        <f t="shared" ref="EX2:FD2" si="60">DEC2HEX(EX7*8+EX8*4+EX9*2+EX10)</f>
-        <v>0</v>
-      </c>
-      <c r="EY2" t="str">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="EZ2" t="str">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="FA2" t="str">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="FB2" t="str">
-        <f t="shared" si="60"/>
-        <v>F</v>
-      </c>
-      <c r="FC2" t="str">
-        <f t="shared" si="60"/>
-        <v>E</v>
-      </c>
-      <c r="FD2" t="str">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="FE2" t="str">
-        <f>DEC2HEX(FE7*8+FE8*4+FE9*2+FE10)</f>
-        <v>0</v>
-      </c>
-      <c r="FF2" t="str">
-        <f t="shared" ref="FF2:FL2" si="61">DEC2HEX(FF7*8+FF8*4+FF9*2+FF10)</f>
-        <v>F</v>
-      </c>
-      <c r="FG2" t="str">
-        <f t="shared" si="61"/>
-        <v>F</v>
-      </c>
-      <c r="FH2" t="str">
-        <f t="shared" si="61"/>
-        <v>8</v>
-      </c>
-      <c r="FI2" t="str">
-        <f t="shared" si="61"/>
-        <v>8</v>
-      </c>
-      <c r="FJ2" t="str">
-        <f t="shared" si="61"/>
-        <v>4</v>
-      </c>
-      <c r="FK2" t="str">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="FL2" t="str">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="FM2" t="str">
-        <f>DEC2HEX(FM7*8+FM8*4+FM9*2+FM10)</f>
-        <v>0</v>
-      </c>
-      <c r="FN2" t="str">
-        <f t="shared" ref="FN2:FT2" si="62">DEC2HEX(FN7*8+FN8*4+FN9*2+FN10)</f>
-        <v>F</v>
-      </c>
-      <c r="FO2" t="str">
-        <f t="shared" si="62"/>
-        <v>F</v>
-      </c>
-      <c r="FP2" t="str">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="str">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="FR2" t="str">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="FS2" t="str">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="FT2" t="str">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="FU2" t="str">
-        <f>DEC2HEX(FU7*8+FU8*4+FU9*2+FU10)</f>
-        <v>0</v>
-      </c>
-      <c r="FV2" t="str">
-        <f t="shared" ref="FV2:GB2" si="63">DEC2HEX(FV7*8+FV8*4+FV9*2+FV10)</f>
-        <v>F</v>
-      </c>
-      <c r="FW2" t="str">
-        <f t="shared" si="63"/>
-        <v>F</v>
-      </c>
-      <c r="FX2" t="str">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="FY2" t="str">
-        <f t="shared" si="63"/>
-        <v>8</v>
-      </c>
-      <c r="FZ2" t="str">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="GA2" t="str">
-        <f t="shared" si="63"/>
-        <v>F</v>
-      </c>
-      <c r="GB2" t="str">
-        <f t="shared" si="63"/>
-        <v>F</v>
-      </c>
-      <c r="GC2" t="str">
-        <f>DEC2HEX(GC7*8+GC8*4+GC9*2+GC10)</f>
-        <v>0</v>
-      </c>
-      <c r="GD2" t="str">
-        <f t="shared" ref="GD2:GJ2" si="64">DEC2HEX(GD7*8+GD8*4+GD9*2+GD10)</f>
-        <v>F</v>
-      </c>
-      <c r="GE2" t="str">
-        <f t="shared" si="64"/>
-        <v>F</v>
-      </c>
-      <c r="GF2" t="str">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="GG2" t="str">
-        <f t="shared" si="64"/>
-        <v>8</v>
-      </c>
-      <c r="GH2" t="str">
-        <f t="shared" si="64"/>
+      <c r="KA2" t="str">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="GI2" t="str">
-        <f t="shared" si="64"/>
-        <v>F</v>
-      </c>
-      <c r="GJ2" t="str">
-        <f t="shared" si="64"/>
-        <v>F</v>
-      </c>
-      <c r="GK2" t="str">
-        <f>DEC2HEX(GK7*8+GK8*4+GK9*2+GK10)</f>
-        <v>0</v>
-      </c>
-      <c r="GL2" t="str">
-        <f t="shared" ref="GL2:GR2" si="65">DEC2HEX(GL7*8+GL8*4+GL9*2+GL10)</f>
-        <v>E</v>
-      </c>
-      <c r="GM2" t="str">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="GN2" t="str">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="GO2" t="str">
-        <f t="shared" si="65"/>
-        <v>9</v>
-      </c>
-      <c r="GP2" t="str">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="str">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="GR2" t="str">
-        <f t="shared" si="65"/>
-        <v>E</v>
-      </c>
-      <c r="GS2" t="str">
-        <f>DEC2HEX(GS7*8+GS8*4+GS9*2+GS10)</f>
-        <v>0</v>
-      </c>
-      <c r="GT2" t="str">
-        <f t="shared" ref="GT2:GZ2" si="66">DEC2HEX(GT7*8+GT8*4+GT9*2+GT10)</f>
-        <v>F</v>
-      </c>
-      <c r="GU2" t="str">
-        <f t="shared" si="66"/>
-        <v>F</v>
-      </c>
-      <c r="GV2" t="str">
-        <f t="shared" si="66"/>
-        <v>8</v>
-      </c>
-      <c r="GW2" t="str">
-        <f t="shared" si="66"/>
-        <v>8</v>
-      </c>
-      <c r="GX2" t="str">
-        <f t="shared" si="66"/>
-        <v>8</v>
-      </c>
-      <c r="GY2" t="str">
-        <f t="shared" si="66"/>
-        <v>8</v>
-      </c>
-      <c r="GZ2" t="str">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="HA2" t="str">
-        <f>DEC2HEX(HA7*8+HA8*4+HA9*2+HA10)</f>
-        <v>0</v>
-      </c>
-      <c r="HB2" t="str">
-        <f t="shared" ref="HB2:HH2" si="67">DEC2HEX(HB7*8+HB8*4+HB9*2+HB10)</f>
-        <v>E</v>
-      </c>
-      <c r="HC2" t="str">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="HD2" t="str">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="HE2" t="str">
-        <f t="shared" si="67"/>
-        <v>9</v>
-      </c>
-      <c r="HF2" t="str">
-        <f t="shared" si="67"/>
-        <v>5</v>
-      </c>
-      <c r="HG2" t="str">
-        <f t="shared" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="HH2" t="str">
-        <f t="shared" si="67"/>
-        <v>D</v>
-      </c>
-      <c r="HI2" t="str">
-        <f>DEC2HEX(HI7*8+HI8*4+HI9*2+HI10)</f>
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="str">
-        <f t="shared" ref="HJ2:HP2" si="68">DEC2HEX(HJ7*8+HJ8*4+HJ9*2+HJ10)</f>
-        <v>F</v>
-      </c>
-      <c r="HK2" t="str">
-        <f t="shared" si="68"/>
-        <v>F</v>
-      </c>
-      <c r="HL2" t="str">
-        <f t="shared" si="68"/>
-        <v>8</v>
-      </c>
-      <c r="HM2" t="str">
-        <f t="shared" si="68"/>
+      <c r="KB2" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="KC2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="KD2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="KE2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="KF2" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="KG2" t="str">
+        <f t="shared" si="13"/>
         <v>C</v>
       </c>
-      <c r="HN2" t="str">
-        <f t="shared" si="68"/>
-        <v>E</v>
-      </c>
-      <c r="HO2" t="str">
-        <f t="shared" si="68"/>
-        <v>B</v>
-      </c>
-      <c r="HP2" t="str">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="str">
-        <f>DEC2HEX(HQ7*8+HQ8*4+HQ9*2+HQ10)</f>
-        <v>0</v>
-      </c>
-      <c r="HR2" t="str">
-        <f t="shared" ref="HR2:HX2" si="69">DEC2HEX(HR7*8+HR8*4+HR9*2+HR10)</f>
-        <v>2</v>
-      </c>
-      <c r="HS2" t="str">
-        <f t="shared" si="69"/>
-        <v>B</v>
-      </c>
-      <c r="HT2" t="str">
-        <f t="shared" si="69"/>
-        <v>9</v>
-      </c>
-      <c r="HU2" t="str">
-        <f t="shared" si="69"/>
-        <v>9</v>
-      </c>
-      <c r="HV2" t="str">
-        <f t="shared" si="69"/>
-        <v>9</v>
-      </c>
-      <c r="HW2" t="str">
-        <f t="shared" si="69"/>
-        <v>F</v>
-      </c>
-      <c r="HX2" t="str">
-        <f t="shared" si="69"/>
-        <v>6</v>
-      </c>
-      <c r="HY2" t="str">
-        <f>DEC2HEX(HY7*8+HY8*4+HY9*2+HY10)</f>
-        <v>0</v>
-      </c>
-      <c r="HZ2" t="str">
-        <f t="shared" ref="HZ2:IF2" si="70">DEC2HEX(HZ7*8+HZ8*4+HZ9*2+HZ10)</f>
-        <v>0</v>
-      </c>
-      <c r="IA2" t="str">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="IB2" t="str">
-        <f t="shared" si="70"/>
-        <v>F</v>
-      </c>
-      <c r="IC2" t="str">
-        <f t="shared" si="70"/>
-        <v>F</v>
-      </c>
-      <c r="ID2" t="str">
-        <f t="shared" si="70"/>
-        <v>F</v>
-      </c>
-      <c r="IE2" t="str">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="IF2" t="str">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="IG2" t="str">
-        <f>DEC2HEX(IG7*8+IG8*4+IG9*2+IG10)</f>
-        <v>0</v>
-      </c>
-      <c r="IH2" t="str">
-        <f t="shared" ref="IH2:IN2" si="71">DEC2HEX(IH7*8+IH8*4+IH9*2+IH10)</f>
-        <v>E</v>
-      </c>
-      <c r="II2" t="str">
-        <f t="shared" si="71"/>
-        <v>F</v>
-      </c>
-      <c r="IJ2" t="str">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="IK2" t="str">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="IL2" t="str">
-        <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="IM2" t="str">
-        <f t="shared" si="71"/>
-        <v>F</v>
-      </c>
-      <c r="IN2" t="str">
-        <f t="shared" si="71"/>
-        <v>E</v>
-      </c>
-      <c r="IO2" t="str">
-        <f>DEC2HEX(IO7*8+IO8*4+IO9*2+IO10)</f>
-        <v>0</v>
-      </c>
-      <c r="IP2" t="str">
-        <f t="shared" ref="IP2:IV2" si="72">DEC2HEX(IP7*8+IP8*4+IP9*2+IP10)</f>
-        <v>0</v>
-      </c>
-      <c r="IQ2" t="str">
-        <f t="shared" si="72"/>
+      <c r="KH2" t="str">
+        <f t="shared" si="13"/>
         <v>C</v>
       </c>
-      <c r="IR2" t="str">
-        <f t="shared" si="72"/>
-        <v>7</v>
-      </c>
-      <c r="IS2" t="str">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="IT2" t="str">
-        <f t="shared" si="72"/>
-        <v>7</v>
-      </c>
-      <c r="IU2" t="str">
-        <f t="shared" si="72"/>
-        <v>C</v>
-      </c>
-      <c r="IV2" t="str">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="IW2" t="str">
-        <f>DEC2HEX(IW7*8+IW8*4+IW9*2+IW10)</f>
-        <v>0</v>
-      </c>
-      <c r="IX2" t="str">
-        <f t="shared" ref="IX2:JD2" si="73">DEC2HEX(IX7*8+IX8*4+IX9*2+IX10)</f>
-        <v>8</v>
-      </c>
-      <c r="IY2" t="str">
-        <f t="shared" si="73"/>
-        <v>6</v>
-      </c>
-      <c r="IZ2" t="str">
-        <f t="shared" si="73"/>
-        <v>F</v>
-      </c>
-      <c r="JA2" t="str">
-        <f t="shared" si="73"/>
-        <v>8</v>
-      </c>
-      <c r="JB2" t="str">
-        <f t="shared" si="73"/>
-        <v>F</v>
-      </c>
-      <c r="JC2" t="str">
-        <f t="shared" si="73"/>
-        <v>6</v>
-      </c>
-      <c r="JD2" t="str">
-        <f t="shared" si="73"/>
-        <v>8</v>
-      </c>
-      <c r="JE2" t="str">
-        <f>DEC2HEX(JE7*8+JE8*4+JE9*2+JE10)</f>
-        <v>0</v>
-      </c>
-      <c r="JF2" t="str">
-        <f t="shared" ref="JF2:JL2" si="74">DEC2HEX(JF7*8+JF8*4+JF9*2+JF10)</f>
-        <v>3</v>
-      </c>
-      <c r="JG2" t="str">
-        <f t="shared" si="74"/>
-        <v>3</v>
-      </c>
-      <c r="JH2" t="str">
-        <f t="shared" si="74"/>
-        <v>4</v>
-      </c>
-      <c r="JI2" t="str">
-        <f t="shared" si="74"/>
-        <v>8</v>
-      </c>
-      <c r="JJ2" t="str">
-        <f t="shared" si="74"/>
-        <v>4</v>
-      </c>
-      <c r="JK2" t="str">
-        <f t="shared" si="74"/>
-        <v>3</v>
-      </c>
-      <c r="JL2" t="str">
-        <f t="shared" si="74"/>
-        <v>3</v>
-      </c>
-      <c r="JM2" t="str">
-        <f>DEC2HEX(JM7*8+JM8*4+JM9*2+JM10)</f>
-        <v>0</v>
-      </c>
-      <c r="JN2" t="str">
-        <f t="shared" ref="JN2:JT2" si="75">DEC2HEX(JN7*8+JN8*4+JN9*2+JN10)</f>
-        <v>0</v>
-      </c>
-      <c r="JO2" t="str">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="JP2" t="str">
-        <f t="shared" si="75"/>
-        <v>8</v>
-      </c>
-      <c r="JQ2" t="str">
-        <f t="shared" si="75"/>
-        <v>F</v>
-      </c>
-      <c r="JR2" t="str">
-        <f t="shared" si="75"/>
-        <v>8</v>
-      </c>
-      <c r="JS2" t="str">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="JT2" t="str">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="JU2" t="str">
-        <f>DEC2HEX(JU7*8+JU8*4+JU9*2+JU10)</f>
-        <v>0</v>
-      </c>
-      <c r="JV2" t="str">
-        <f t="shared" ref="JV2:KB2" si="76">DEC2HEX(JV7*8+JV8*4+JV9*2+JV10)</f>
-        <v>3</v>
-      </c>
-      <c r="JW2" t="str">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="JX2" t="str">
-        <f t="shared" si="76"/>
-        <v>7</v>
-      </c>
-      <c r="JY2" t="str">
-        <f t="shared" si="76"/>
-        <v>B</v>
-      </c>
-      <c r="JZ2" t="str">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="KA2" t="str">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="KB2" t="str">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="KC2" t="str">
-        <f>DEC2HEX(KC7*8+KC8*4+KC9*2+KC10)</f>
-        <v>0</v>
-      </c>
-      <c r="KD2" t="str">
-        <f t="shared" ref="KD2:KJ2" si="77">DEC2HEX(KD7*8+KD8*4+KD9*2+KD10)</f>
-        <v>0</v>
-      </c>
-      <c r="KE2" t="str">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="KF2" t="str">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="KG2" t="str">
-        <f t="shared" si="77"/>
-        <v>3</v>
-      </c>
-      <c r="KH2" t="str">
-        <f t="shared" si="77"/>
-        <v>3</v>
-      </c>
       <c r="KI2" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KJ2" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KK2" t="str">
-        <f>DEC2HEX(KK7*8+KK8*4+KK9*2+KK10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KL2" t="str">
-        <f t="shared" ref="KL2:KR2" si="78">DEC2HEX(KL7*8+KL8*4+KL9*2+KL10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KM2" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KN2" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KO2" t="str">
-        <f t="shared" si="78"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="KP2" t="str">
-        <f t="shared" si="78"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="KQ2" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KR2" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KS2" t="str">
-        <f>DEC2HEX(KS7*8+KS8*4+KS9*2+KS10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KT2" t="str">
-        <f t="shared" ref="KT2:KZ2" si="79">DEC2HEX(KT7*8+KT8*4+KT9*2+KT10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KU2" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KV2" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KW2" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="KX2" t="str">
-        <f t="shared" si="79"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="KY2" t="str">
-        <f t="shared" si="79"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="KZ2" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="LA2" t="str">
-        <f>DEC2HEX(LA7*8+LA8*4+LA9*2+LA10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="LB2" t="str">
-        <f t="shared" ref="LB2:LH2" si="80">DEC2HEX(LB7*8+LB8*4+LB9*2+LB10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="LC2" t="str">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="LD2" t="str">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="LE2" t="str">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="LF2" t="str">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="LG2" t="str">
-        <f t="shared" si="80"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="LH2" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="LI2" t="str">
-        <f>DEC2HEX(LI7*8+LI8*4+LI9*2+LI10)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="LJ2" t="str">
-        <f t="shared" ref="LJ2:LP2" si="81">DEC2HEX(LJ7*8+LJ8*4+LJ9*2+LJ10)</f>
+        <f t="shared" ref="LJ2:LN2" si="14">DEC2HEX(LJ6*8+LJ5*4+LJ4*2+LJ3)</f>
         <v>0</v>
       </c>
       <c r="LK2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="LL2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="LM2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="LN2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="LO2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="LJ2:LP2" si="15">DEC2HEX(LO7*8+LO8*4+LO9*2+LO10)</f>
         <v>0</v>
       </c>
       <c r="LP2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="LQ2" t="str">
@@ -3298,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="LR2" t="str">
-        <f t="shared" ref="LR2:LX2" si="82">DEC2HEX(LR7*8+LR8*4+LR9*2+LR10)</f>
+        <f t="shared" ref="LR2:LX2" si="16">DEC2HEX(LR7*8+LR8*4+LR9*2+LR10)</f>
         <v>0</v>
       </c>
       <c r="LS2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="LT2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="LU2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="LV2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="LW2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="LX2" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="LY2" t="str">
@@ -3330,31 +3342,31 @@
         <v>0</v>
       </c>
       <c r="LZ2" t="str">
-        <f t="shared" ref="LZ2:MF2" si="83">DEC2HEX(LZ7*8+LZ8*4+LZ9*2+LZ10)</f>
+        <f t="shared" ref="LZ2:MF2" si="17">DEC2HEX(LZ7*8+LZ8*4+LZ9*2+LZ10)</f>
         <v>0</v>
       </c>
       <c r="MA2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="MB2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="MC2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="MD2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="ME2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="MF2" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11263,20 +11275,2529 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="1:344" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>C2</v>
+      </c>
+      <c r="E14" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>A2</v>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>8A</v>
+      </c>
+      <c r="H14" t="str" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>86</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">INDIRECT(ADDRESS(1,$A14*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A14*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="15" spans="1:344" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C15" t="str" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E15" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>04</v>
+      </c>
+      <c r="G15" t="str" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="H15" t="str" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">INDIRECT(ADDRESS(1,$A15*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A15*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:344" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C16" t="str" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>8C</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>E2</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>A2</v>
+      </c>
+      <c r="G16" t="str" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H16" t="str" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>9E</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">INDIRECT(ADDRESS(1,$A16*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A16*8+COLUMN()-1))</f>
+        <v>8C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C17" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>54</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>D6</v>
+      </c>
+      <c r="E17" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H17" t="str" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">INDIRECT(ADDRESS(1,$A17*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A17*8+COLUMN()-1))</f>
+        <v>6C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C18" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>70</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>78</v>
+      </c>
+      <c r="E18" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>6C</v>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>66</v>
+      </c>
+      <c r="G18" t="str" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="H18" t="str" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">INDIRECT(ADDRESS(1,$A18*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A18*8+COLUMN()-1))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="str" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C19" t="str" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>5E</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>DE</v>
+      </c>
+      <c r="E19" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G19" t="str" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H19" t="str" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>F2</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" aca="1" ref="I19" ca="1">INDIRECT(ADDRESS(1,$A19*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A19*8+COLUMN()-1))</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="str" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C20" t="str" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+      <c r="D20" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E20" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>96</v>
+      </c>
+      <c r="F20" t="str" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G20" t="str" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H20" t="str" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>F6</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" aca="1" ref="I20" ca="1">INDIRECT(ADDRESS(1,$A20*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A20*8+COLUMN()-1))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C21" t="str" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D21" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>06</v>
+      </c>
+      <c r="E21" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+      <c r="F21" t="str" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>C2</v>
+      </c>
+      <c r="G21" t="str" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>F2</v>
+      </c>
+      <c r="H21" t="str" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>3E</v>
+      </c>
+      <c r="I21" t="str" cm="1">
+        <f t="array" aca="1" ref="I21" ca="1">INDIRECT(ADDRESS(1,$A21*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A21*8+COLUMN()-1))</f>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="str" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C22" t="str" cm="1">
+        <f t="array" aca="1" ref="C22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>6C</v>
+      </c>
+      <c r="D22" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E22" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F22" t="str" cm="1">
+        <f t="array" aca="1" ref="F22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G22" t="str" cm="1">
+        <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H22" t="str" cm="1">
+        <f t="array" aca="1" ref="H22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I22" t="str" cm="1">
+        <f t="array" aca="1" ref="I22" ca="1">INDIRECT(ADDRESS(1,$A22*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A22*8+COLUMN()-1))</f>
+        <v>6C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C23" t="str" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>0C</v>
+      </c>
+      <c r="D23" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>5E</v>
+      </c>
+      <c r="E23" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F23" t="str" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G23" t="str" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H23" t="str" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I23" t="str" cm="1">
+        <f t="array" aca="1" ref="I23" ca="1">INDIRECT(ADDRESS(1,$A23*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A23*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="str" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C24" t="str" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>E0</v>
+      </c>
+      <c r="D24" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>FC</v>
+      </c>
+      <c r="E24" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>3E</v>
+      </c>
+      <c r="F24" t="str" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>26</v>
+      </c>
+      <c r="G24" t="str" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>3E</v>
+      </c>
+      <c r="H24" t="str" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>FC</v>
+      </c>
+      <c r="I24" t="str" cm="1">
+        <f t="array" aca="1" ref="I24" ca="1">INDIRECT(ADDRESS(1,$A24*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A24*8+COLUMN()-1))</f>
+        <v>E0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="str" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C25" t="str" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D25" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E25" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F25" t="str" cm="1">
+        <f t="array" aca="1" ref="F25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G25" t="str" cm="1">
+        <f t="array" aca="1" ref="G25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H25" t="str" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="I25" t="str" cm="1">
+        <f t="array" aca="1" ref="I25" ca="1">INDIRECT(ADDRESS(1,$A25*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A25*8+COLUMN()-1))</f>
+        <v>6C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="str" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C26" t="str" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+      <c r="D26" t="str" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>EE</v>
+      </c>
+      <c r="E26" t="str" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="F26" t="str" cm="1">
+        <f t="array" aca="1" ref="F26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="G26" t="str" cm="1">
+        <f t="array" aca="1" ref="G26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="H26" t="str" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="I26" t="str" cm="1">
+        <f t="array" aca="1" ref="I26" ca="1">INDIRECT(ADDRESS(1,$A26*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A26*8+COLUMN()-1))</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="str" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C27" t="str" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D27" t="str" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E27" t="str" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="F27" t="str" cm="1">
+        <f t="array" aca="1" ref="F27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="G27" t="str" cm="1">
+        <f t="array" aca="1" ref="G27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="H27" t="str" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="I27" t="str" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">INDIRECT(ADDRESS(1,$A27*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A27*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C28" t="str" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D28" t="str" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E28" t="str" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F28" t="str" cm="1">
+        <f t="array" aca="1" ref="F28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G28" t="str" cm="1">
+        <f t="array" aca="1" ref="G28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H28" t="str" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="I28" t="str" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">INDIRECT(ADDRESS(1,$A28*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A28*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C29" t="str" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D29" t="str" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E29" t="str" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="F29" t="str" cm="1">
+        <f t="array" aca="1" ref="F29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="G29" t="str" cm="1">
+        <f t="array" aca="1" ref="G29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="H29" t="str" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="I29" t="str" cm="1">
+        <f t="array" aca="1" ref="I29" ca="1">INDIRECT(ADDRESS(1,$A29*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A29*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="str" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C30" t="str" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+      <c r="D30" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>EE</v>
+      </c>
+      <c r="E30" t="str" cm="1">
+        <f t="array" aca="1" ref="E30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="F30" t="str" cm="1">
+        <f t="array" aca="1" ref="F30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G30" t="str" cm="1">
+        <f t="array" aca="1" ref="G30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H30" t="str" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>D6</v>
+      </c>
+      <c r="I30" t="str" cm="1">
+        <f t="array" aca="1" ref="I30" ca="1">INDIRECT(ADDRESS(1,$A30*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A30*8+COLUMN()-1))</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C31" t="str" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D31" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E31" t="str" cm="1">
+        <f t="array" aca="1" ref="E31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="F31" t="str" cm="1">
+        <f t="array" aca="1" ref="F31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G31" t="str" cm="1">
+        <f t="array" aca="1" ref="G31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="H31" t="str" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I31" t="str" cm="1">
+        <f t="array" aca="1" ref="I31" ca="1">INDIRECT(ADDRESS(1,$A31*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A31*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C32" t="str" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D32" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="E32" t="str" cm="1">
+        <f t="array" aca="1" ref="E32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="F32" t="str" cm="1">
+        <f t="array" aca="1" ref="F32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="G32" t="str" cm="1">
+        <f t="array" aca="1" ref="G32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="H32" t="str" cm="1">
+        <f t="array" aca="1" ref="H32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="I32" t="str" cm="1">
+        <f t="array" aca="1" ref="I32" ca="1">INDIRECT(ADDRESS(1,$A32*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A32*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C33" t="str" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+      <c r="D33" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>42</v>
+      </c>
+      <c r="E33" t="str" cm="1">
+        <f t="array" aca="1" ref="E33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="F33" t="str" cm="1">
+        <f t="array" aca="1" ref="F33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="G33" t="str" cm="1">
+        <f t="array" aca="1" ref="G33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="H33" t="str" cm="1">
+        <f t="array" aca="1" ref="H33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>7E</v>
+      </c>
+      <c r="I33" t="str" cm="1">
+        <f t="array" aca="1" ref="I33" ca="1">INDIRECT(ADDRESS(1,$A33*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A33*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C34" t="str" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D34" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E34" t="str" cm="1">
+        <f t="array" aca="1" ref="E34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="F34" t="str" cm="1">
+        <f t="array" aca="1" ref="F34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>18</v>
+      </c>
+      <c r="G34" t="str" cm="1">
+        <f t="array" aca="1" ref="G34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>2C</v>
+      </c>
+      <c r="H34" t="str" cm="1">
+        <f t="array" aca="1" ref="H34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>46</v>
+      </c>
+      <c r="I34" t="str" cm="1">
+        <f t="array" aca="1" ref="I34" ca="1">INDIRECT(ADDRESS(1,$A34*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A34*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C35" t="str" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D35" t="str" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E35" t="str" cm="1">
+        <f t="array" aca="1" ref="E35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>80</v>
+      </c>
+      <c r="F35" t="str" cm="1">
+        <f t="array" aca="1" ref="F35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>80</v>
+      </c>
+      <c r="G35" t="str" cm="1">
+        <f t="array" aca="1" ref="G35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>80</v>
+      </c>
+      <c r="H35" t="str" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>80</v>
+      </c>
+      <c r="I35" t="str" cm="1">
+        <f t="array" aca="1" ref="I35" ca="1">INDIRECT(ADDRESS(1,$A35*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A35*8+COLUMN()-1))</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="str" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C36" t="str" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D36" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>FC</v>
+      </c>
+      <c r="E36" t="str" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>08</v>
+      </c>
+      <c r="F36" t="str" cm="1">
+        <f t="array" aca="1" ref="F36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G36" t="str" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>08</v>
+      </c>
+      <c r="H36" t="str" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>FC</v>
+      </c>
+      <c r="I36" t="str" cm="1">
+        <f t="array" aca="1" ref="I36" ca="1">INDIRECT(ADDRESS(1,$A36*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A36*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" t="str" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C37" t="str" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D37" t="str" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E37" t="str" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>0C</v>
+      </c>
+      <c r="F37" t="str" cm="1">
+        <f t="array" aca="1" ref="F37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G37" t="str" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>60</v>
+      </c>
+      <c r="H37" t="str" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I37" t="str" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">INDIRECT(ADDRESS(1,$A37*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A37*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" t="str" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C38" t="str" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+      <c r="D38" t="str" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="E38" t="str" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="F38" t="str" cm="1">
+        <f t="array" aca="1" ref="F38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G38" t="str" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="H38" t="str" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="I38" t="str" cm="1">
+        <f t="array" aca="1" ref="I38" ca="1">INDIRECT(ADDRESS(1,$A38*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A38*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" t="str" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C39" t="str" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D39" t="str" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E39" t="str" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="F39" t="str" cm="1">
+        <f t="array" aca="1" ref="F39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="G39" t="str" cm="1">
+        <f t="array" aca="1" ref="G39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="H39" t="str" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>1E</v>
+      </c>
+      <c r="I39" t="str" cm="1">
+        <f t="array" aca="1" ref="I39" ca="1">INDIRECT(ADDRESS(1,$A39*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A39*8+COLUMN()-1))</f>
+        <v>0C</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" t="str" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C40" t="str" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>7C</v>
+      </c>
+      <c r="D40" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="E40" t="str" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>82</v>
+      </c>
+      <c r="F40" t="str" cm="1">
+        <f t="array" aca="1" ref="F40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G40" t="str" cm="1">
+        <f t="array" aca="1" ref="G40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>A2</v>
+      </c>
+      <c r="H40" t="str" cm="1">
+        <f t="array" aca="1" ref="H40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>42</v>
+      </c>
+      <c r="I40" t="str" cm="1">
+        <f t="array" aca="1" ref="I40" ca="1">INDIRECT(ADDRESS(1,$A40*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A40*8+COLUMN()-1))</f>
+        <v>BC</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C41" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="D41" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E41" t="str" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>12</v>
+      </c>
+      <c r="F41" t="str" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>32</v>
+      </c>
+      <c r="G41" t="str" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>72</v>
+      </c>
+      <c r="H41" t="str" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>DE</v>
+      </c>
+      <c r="I41" t="str" cm="1">
+        <f t="array" aca="1" ref="I41" ca="1">INDIRECT(ADDRESS(1,$A41*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A41*8+COLUMN()-1))</f>
+        <v>8C</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C42" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>4C</v>
+      </c>
+      <c r="D42" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>DE</v>
+      </c>
+      <c r="E42" t="str" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="F42" t="str" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="G42" t="str" cm="1">
+        <f t="array" aca="1" ref="G42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>92</v>
+      </c>
+      <c r="H42" t="str" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>F6</v>
+      </c>
+      <c r="I42" t="str" cm="1">
+        <f t="array" aca="1" ref="I42" ca="1">INDIRECT(ADDRESS(1,$A42*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A42*8+COLUMN()-1))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C43" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+      <c r="D43" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+      <c r="E43" t="str" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="F43" t="str" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="G43" t="str" cm="1">
+        <f t="array" aca="1" ref="G43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="H43" t="str" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+      <c r="I43" t="str" cm="1">
+        <f t="array" aca="1" ref="I43" ca="1">INDIRECT(ADDRESS(1,$A43*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A43*8+COLUMN()-1))</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C44" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>7E</v>
+      </c>
+      <c r="D44" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="E44" t="str" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>C0</v>
+      </c>
+      <c r="F44" t="str" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>C0</v>
+      </c>
+      <c r="G44" t="str" cm="1">
+        <f t="array" aca="1" ref="G44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>C0</v>
+      </c>
+      <c r="H44" t="str" cm="1">
+        <f t="array" aca="1" ref="H44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>FE</v>
+      </c>
+      <c r="I44" t="str" cm="1">
+        <f t="array" aca="1" ref="I44" ca="1">INDIRECT(ADDRESS(1,$A44*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A44*8+COLUMN()-1))</f>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C45" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>0E</v>
+      </c>
+      <c r="D45" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>3E</v>
+      </c>
+      <c r="E45" t="str" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>E0</v>
+      </c>
+      <c r="F45" t="str" cm="1">
+        <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>80</v>
+      </c>
+      <c r="G45" t="str" cm="1">
+        <f t="array" aca="1" ref="G45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>E0</v>
+      </c>
+      <c r="H45" t="str" cm="1">
+        <f t="array" aca="1" ref="H45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>3E</v>
+      </c>
+      <c r="I45" t="str" cm="1">
+        <f t="array" aca="1" ref="I45" ca="1">INDIRECT(ADDRESS(1,$A45*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A45*8+COLUMN()-1))</f>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C46" t="str" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>1E</v>
+      </c>
+      <c r="D46" t="str" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>60</v>
+      </c>
+      <c r="E46" t="str" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>F8</v>
+      </c>
+      <c r="F46" t="str" cm="1">
+        <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>1E</v>
+      </c>
+      <c r="G46" t="str" cm="1">
+        <f t="array" aca="1" ref="G46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>F8</v>
+      </c>
+      <c r="H46" t="str" cm="1">
+        <f t="array" aca="1" ref="H46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>60</v>
+      </c>
+      <c r="I46" t="str" cm="1">
+        <f t="array" aca="1" ref="I46" ca="1">INDIRECT(ADDRESS(1,$A46*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A46*8+COLUMN()-1))</f>
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" t="str" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C47" t="str" cm="1">
+        <f t="array" aca="1" ref="C47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="D47" t="str" cm="1">
+        <f t="array" aca="1" ref="D47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="E47" t="str" cm="1">
+        <f t="array" aca="1" ref="E47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>28</v>
+      </c>
+      <c r="F47" t="str" cm="1">
+        <f t="array" aca="1" ref="F47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G47" t="str" cm="1">
+        <f t="array" aca="1" ref="G47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>28</v>
+      </c>
+      <c r="H47" t="str" cm="1">
+        <f t="array" aca="1" ref="H47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="I47" t="str" cm="1">
+        <f t="array" aca="1" ref="I47" ca="1">INDIRECT(ADDRESS(1,$A47*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A47*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="str" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C48" t="str" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>06</v>
+      </c>
+      <c r="D48" t="str" cm="1">
+        <f t="array" aca="1" ref="D48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>0C</v>
+      </c>
+      <c r="E48" t="str" cm="1">
+        <f t="array" aca="1" ref="E48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>18</v>
+      </c>
+      <c r="F48" t="str" cm="1">
+        <f t="array" aca="1" ref="F48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>F0</v>
+      </c>
+      <c r="G48" t="str" cm="1">
+        <f t="array" aca="1" ref="G48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>18</v>
+      </c>
+      <c r="H48" t="str" cm="1">
+        <f t="array" aca="1" ref="H48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>0C</v>
+      </c>
+      <c r="I48" t="str" cm="1">
+        <f t="array" aca="1" ref="I48" ca="1">INDIRECT(ADDRESS(1,$A48*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A48*8+COLUMN()-1))</f>
+        <v>06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C49" t="str" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="D49" t="str" cm="1">
+        <f t="array" aca="1" ref="D49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="E49" t="str" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>E6</v>
+      </c>
+      <c r="F49" t="str" cm="1">
+        <f t="array" aca="1" ref="F49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>D6</v>
+      </c>
+      <c r="G49" t="str" cm="1">
+        <f t="array" aca="1" ref="G49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>CE</v>
+      </c>
+      <c r="H49" t="str" cm="1">
+        <f t="array" aca="1" ref="H49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+      <c r="I49" t="str" cm="1">
+        <f t="array" aca="1" ref="I49" ca="1">INDIRECT(ADDRESS(1,$A49*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A49*8+COLUMN()-1))</f>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C50" t="str" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D50" t="str" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E50" t="str" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F50" t="str" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>CC</v>
+      </c>
+      <c r="G50" t="str" cm="1">
+        <f t="array" aca="1" ref="G50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>CC</v>
+      </c>
+      <c r="H50" t="str" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="I50" t="str" cm="1">
+        <f t="array" aca="1" ref="I50" ca="1">INDIRECT(ADDRESS(1,$A50*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A50*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>37</v>
+      </c>
+      <c r="B51" t="str" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C51" t="str" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D51" t="str" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E51" t="str" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F51" t="str" cm="1">
+        <f t="array" aca="1" ref="F51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>60</v>
+      </c>
+      <c r="G51" t="str" cm="1">
+        <f t="array" aca="1" ref="G51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>E0</v>
+      </c>
+      <c r="H51" t="str" cm="1">
+        <f t="array" aca="1" ref="H51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="I51" t="str" cm="1">
+        <f t="array" aca="1" ref="I51" ca="1">INDIRECT(ADDRESS(1,$A51*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A51*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>38</v>
+      </c>
+      <c r="B52" t="str" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C52" t="str" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D52" t="str" cm="1">
+        <f t="array" aca="1" ref="D52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E52" t="str" cm="1">
+        <f t="array" aca="1" ref="E52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F52" t="str" cm="1">
+        <f t="array" aca="1" ref="F52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="G52" t="str" cm="1">
+        <f t="array" aca="1" ref="G52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>C0</v>
+      </c>
+      <c r="H52" t="str" cm="1">
+        <f t="array" aca="1" ref="H52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>C0</v>
+      </c>
+      <c r="I52" t="str" cm="1">
+        <f t="array" aca="1" ref="I52" ca="1">INDIRECT(ADDRESS(1,$A52*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A52*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>39</v>
+      </c>
+      <c r="B53" t="str" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C53" t="str" cm="1">
+        <f t="array" aca="1" ref="C53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D53" t="str" cm="1">
+        <f t="array" aca="1" ref="D53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="E53" t="str" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="F53" t="str" cm="1">
+        <f t="array" aca="1" ref="F53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="G53" t="str" cm="1">
+        <f t="array" aca="1" ref="G53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="H53" t="str" cm="1">
+        <f t="array" aca="1" ref="H53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>10</v>
+      </c>
+      <c r="I53" t="str" cm="1">
+        <f t="array" aca="1" ref="I53" ca="1">INDIRECT(ADDRESS(1,$A53*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A53*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54" t="str" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C54" t="str" cm="1">
+        <f t="array" aca="1" ref="C54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D54" t="str" cm="1">
+        <f t="array" aca="1" ref="D54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E54" t="str" cm="1">
+        <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F54" t="str" cm="1">
+        <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="G54" t="str" cm="1">
+        <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="H54" t="str" cm="1">
+        <f t="array" aca="1" ref="H54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="I54" t="str" cm="1">
+        <f t="array" aca="1" ref="I54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="str" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C55" t="str" cm="1">
+        <f t="array" aca="1" ref="C55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D55" t="str" cm="1">
+        <f t="array" aca="1" ref="D55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E55" t="str" cm="1">
+        <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F55" t="str" cm="1">
+        <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="G55" t="str" cm="1">
+        <f t="array" aca="1" ref="G55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="H55" t="str" cm="1">
+        <f t="array" aca="1" ref="H55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="I55" t="str" cm="1">
+        <f t="array" aca="1" ref="I55" ca="1">INDIRECT(ADDRESS(1,$A55*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A55*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="str" cm="1">
+        <f t="array" aca="1" ref="B56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="C56" t="str" cm="1">
+        <f t="array" aca="1" ref="C56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="D56" t="str" cm="1">
+        <f t="array" aca="1" ref="D56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="E56" t="str" cm="1">
+        <f t="array" aca="1" ref="E56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="F56" t="str" cm="1">
+        <f t="array" aca="1" ref="F56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="G56" t="str" cm="1">
+        <f t="array" aca="1" ref="G56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="H56" t="str" cm="1">
+        <f t="array" aca="1" ref="H56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+      <c r="I56" t="str" cm="1">
+        <f t="array" aca="1" ref="I56" ca="1">INDIRECT(ADDRESS(1,$A56*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A56*8+COLUMN()-1))</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57" t="str" cm="1">
+        <f t="array" aca="1" ref="B57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C57" t="str" cm="1">
+        <f t="array" aca="1" ref="C57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D57" t="str" cm="1">
+        <f t="array" aca="1" ref="D57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E57" t="str" cm="1">
+        <f t="array" aca="1" ref="E57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F57" t="str" cm="1">
+        <f t="array" aca="1" ref="F57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G57" t="str" cm="1">
+        <f t="array" aca="1" ref="G57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H57" t="str" cm="1">
+        <f t="array" aca="1" ref="H57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I57" t="str" cm="1">
+        <f t="array" aca="1" ref="I57" ca="1">INDIRECT(ADDRESS(1,$A57*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A57*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58" t="str" cm="1">
+        <f t="array" aca="1" ref="B58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C58" t="str" cm="1">
+        <f t="array" aca="1" ref="C58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D58" t="str" cm="1">
+        <f t="array" aca="1" ref="D58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E58" t="str" cm="1">
+        <f t="array" aca="1" ref="E58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F58" t="str" cm="1">
+        <f t="array" aca="1" ref="F58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G58" t="str" cm="1">
+        <f t="array" aca="1" ref="G58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H58" t="str" cm="1">
+        <f t="array" aca="1" ref="H58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I58" t="str" cm="1">
+        <f t="array" aca="1" ref="I58" ca="1">INDIRECT(ADDRESS(1,$A58*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A58*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59" t="str" cm="1">
+        <f t="array" aca="1" ref="B59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C59" t="str" cm="1">
+        <f t="array" aca="1" ref="C59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D59" t="str" cm="1">
+        <f t="array" aca="1" ref="D59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E59" t="str" cm="1">
+        <f t="array" aca="1" ref="E59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F59" t="str" cm="1">
+        <f t="array" aca="1" ref="F59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G59" t="str" cm="1">
+        <f t="array" aca="1" ref="G59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H59" t="str" cm="1">
+        <f t="array" aca="1" ref="H59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I59" t="str" cm="1">
+        <f t="array" aca="1" ref="I59" ca="1">INDIRECT(ADDRESS(1,$A59*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A59*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>46</v>
+      </c>
+      <c r="B60" t="str" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C60" t="str" cm="1">
+        <f t="array" aca="1" ref="C60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D60" t="str" cm="1">
+        <f t="array" aca="1" ref="D60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E60" t="str" cm="1">
+        <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F60" t="str" cm="1">
+        <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G60" t="str" cm="1">
+        <f t="array" aca="1" ref="G60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H60" t="str" cm="1">
+        <f t="array" aca="1" ref="H60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I60" t="str" cm="1">
+        <f t="array" aca="1" ref="I60" ca="1">INDIRECT(ADDRESS(1,$A60*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A60*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" t="str" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C61" t="str" cm="1">
+        <f t="array" aca="1" ref="C61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D61" t="str" cm="1">
+        <f t="array" aca="1" ref="D61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E61" t="str" cm="1">
+        <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F61" t="str" cm="1">
+        <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G61" t="str" cm="1">
+        <f t="array" aca="1" ref="G61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H61" t="str" cm="1">
+        <f t="array" aca="1" ref="H61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I61" t="str" cm="1">
+        <f t="array" aca="1" ref="I61" ca="1">INDIRECT(ADDRESS(1,$A61*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A61*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="str" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C62" t="str" cm="1">
+        <f t="array" aca="1" ref="C62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D62" t="str" cm="1">
+        <f t="array" aca="1" ref="D62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E62" t="str" cm="1">
+        <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F62" t="str" cm="1">
+        <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G62" t="str" cm="1">
+        <f t="array" aca="1" ref="G62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H62" t="str" cm="1">
+        <f t="array" aca="1" ref="H62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I62" t="str" cm="1">
+        <f t="array" aca="1" ref="I62" ca="1">INDIRECT(ADDRESS(1,$A62*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A62*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="str" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C63" t="str" cm="1">
+        <f t="array" aca="1" ref="C63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D63" t="str" cm="1">
+        <f t="array" aca="1" ref="D63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E63" t="str" cm="1">
+        <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F63" t="str" cm="1">
+        <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G63" t="str" cm="1">
+        <f t="array" aca="1" ref="G63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H63" t="str" cm="1">
+        <f t="array" aca="1" ref="H63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I63" t="str" cm="1">
+        <f t="array" aca="1" ref="I63" ca="1">INDIRECT(ADDRESS(1,$A63*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A63*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" t="str" cm="1">
+        <f t="array" aca="1" ref="B64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C64" t="str" cm="1">
+        <f t="array" aca="1" ref="C64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D64" t="str" cm="1">
+        <f t="array" aca="1" ref="D64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E64" t="str" cm="1">
+        <f t="array" aca="1" ref="E64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F64" t="str" cm="1">
+        <f t="array" aca="1" ref="F64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G64" t="str" cm="1">
+        <f t="array" aca="1" ref="G64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H64" t="str" cm="1">
+        <f t="array" aca="1" ref="H64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I64" t="str" cm="1">
+        <f t="array" aca="1" ref="I64" ca="1">INDIRECT(ADDRESS(1,$A64*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A64*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>51</v>
+      </c>
+      <c r="B65" t="str" cm="1">
+        <f t="array" aca="1" ref="B65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C65" t="str" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D65" t="str" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E65" t="str" cm="1">
+        <f t="array" aca="1" ref="E65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F65" t="str" cm="1">
+        <f t="array" aca="1" ref="F65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G65" t="str" cm="1">
+        <f t="array" aca="1" ref="G65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H65" t="str" cm="1">
+        <f t="array" aca="1" ref="H65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I65" t="str" cm="1">
+        <f t="array" aca="1" ref="I65" ca="1">INDIRECT(ADDRESS(1,$A65*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A65*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>52</v>
+      </c>
+      <c r="B66" t="str" cm="1">
+        <f t="array" aca="1" ref="B66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C66" t="str" cm="1">
+        <f t="array" aca="1" ref="C66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D66" t="str" cm="1">
+        <f t="array" aca="1" ref="D66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E66" t="str" cm="1">
+        <f t="array" aca="1" ref="E66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F66" t="str" cm="1">
+        <f t="array" aca="1" ref="F66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G66" t="str" cm="1">
+        <f t="array" aca="1" ref="G66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H66" t="str" cm="1">
+        <f t="array" aca="1" ref="H66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I66" t="str" cm="1">
+        <f t="array" aca="1" ref="I66" ca="1">INDIRECT(ADDRESS(1,$A66*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A66*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67" t="str" cm="1">
+        <f t="array" aca="1" ref="B67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C67" t="str" cm="1">
+        <f t="array" aca="1" ref="C67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D67" t="str" cm="1">
+        <f t="array" aca="1" ref="D67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E67" t="str" cm="1">
+        <f t="array" aca="1" ref="E67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F67" t="str" cm="1">
+        <f t="array" aca="1" ref="F67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G67" t="str" cm="1">
+        <f t="array" aca="1" ref="G67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H67" t="str" cm="1">
+        <f t="array" aca="1" ref="H67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I67" t="str" cm="1">
+        <f t="array" aca="1" ref="I67" ca="1">INDIRECT(ADDRESS(1,$A67*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A67*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>54</v>
+      </c>
+      <c r="B68" t="str" cm="1">
+        <f t="array" aca="1" ref="B68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C68" t="str" cm="1">
+        <f t="array" aca="1" ref="C68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D68" t="str" cm="1">
+        <f t="array" aca="1" ref="D68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E68" t="str" cm="1">
+        <f t="array" aca="1" ref="E68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F68" t="str" cm="1">
+        <f t="array" aca="1" ref="F68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G68" t="str" cm="1">
+        <f t="array" aca="1" ref="G68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H68" t="str" cm="1">
+        <f t="array" aca="1" ref="H68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I68" t="str" cm="1">
+        <f t="array" aca="1" ref="I68" ca="1">INDIRECT(ADDRESS(1,$A68*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A68*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="str" cm="1">
+        <f t="array" aca="1" ref="B69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C69" t="str" cm="1">
+        <f t="array" aca="1" ref="C69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D69" t="str" cm="1">
+        <f t="array" aca="1" ref="D69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E69" t="str" cm="1">
+        <f t="array" aca="1" ref="E69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F69" t="str" cm="1">
+        <f t="array" aca="1" ref="F69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G69" t="str" cm="1">
+        <f t="array" aca="1" ref="G69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H69" t="str" cm="1">
+        <f t="array" aca="1" ref="H69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I69" t="str" cm="1">
+        <f t="array" aca="1" ref="I69" ca="1">INDIRECT(ADDRESS(1,$A69*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A69*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="B70" t="str" cm="1">
+        <f t="array" aca="1" ref="B70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C70" t="str" cm="1">
+        <f t="array" aca="1" ref="C70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D70" t="str" cm="1">
+        <f t="array" aca="1" ref="D70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E70" t="str" cm="1">
+        <f t="array" aca="1" ref="E70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F70" t="str" cm="1">
+        <f t="array" aca="1" ref="F70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G70" t="str" cm="1">
+        <f t="array" aca="1" ref="G70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H70" t="str" cm="1">
+        <f t="array" aca="1" ref="H70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I70" t="str" cm="1">
+        <f t="array" aca="1" ref="I70" ca="1">INDIRECT(ADDRESS(1,$A70*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A70*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>57</v>
+      </c>
+      <c r="B71" t="str" cm="1">
+        <f t="array" aca="1" ref="B71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C71" t="str" cm="1">
+        <f t="array" aca="1" ref="C71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D71" t="str" cm="1">
+        <f t="array" aca="1" ref="D71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E71" t="str" cm="1">
+        <f t="array" aca="1" ref="E71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F71" t="str" cm="1">
+        <f t="array" aca="1" ref="F71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G71" t="str" cm="1">
+        <f t="array" aca="1" ref="G71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H71" t="str" cm="1">
+        <f t="array" aca="1" ref="H71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I71" t="str" cm="1">
+        <f t="array" aca="1" ref="I71" ca="1">INDIRECT(ADDRESS(1,$A71*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A71*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>58</v>
+      </c>
+      <c r="B72" t="str" cm="1">
+        <f t="array" aca="1" ref="B72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C72" t="str" cm="1">
+        <f t="array" aca="1" ref="C72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D72" t="str" cm="1">
+        <f t="array" aca="1" ref="D72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E72" t="str" cm="1">
+        <f t="array" aca="1" ref="E72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F72" t="str" cm="1">
+        <f t="array" aca="1" ref="F72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G72" t="str" cm="1">
+        <f t="array" aca="1" ref="G72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H72" t="str" cm="1">
+        <f t="array" aca="1" ref="H72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I72" t="str" cm="1">
+        <f t="array" aca="1" ref="I72" ca="1">INDIRECT(ADDRESS(1,$A72*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A72*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>59</v>
+      </c>
+      <c r="B73" t="str" cm="1">
+        <f t="array" aca="1" ref="B73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C73" t="str" cm="1">
+        <f t="array" aca="1" ref="C73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D73" t="str" cm="1">
+        <f t="array" aca="1" ref="D73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E73" t="str" cm="1">
+        <f t="array" aca="1" ref="E73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F73" t="str" cm="1">
+        <f t="array" aca="1" ref="F73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G73" t="str" cm="1">
+        <f t="array" aca="1" ref="G73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H73" t="str" cm="1">
+        <f t="array" aca="1" ref="H73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I73" t="str" cm="1">
+        <f t="array" aca="1" ref="I73" ca="1">INDIRECT(ADDRESS(1,$A73*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A73*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>60</v>
+      </c>
+      <c r="B74" t="str" cm="1">
+        <f t="array" aca="1" ref="B74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C74" t="str" cm="1">
+        <f t="array" aca="1" ref="C74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D74" t="str" cm="1">
+        <f t="array" aca="1" ref="D74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E74" t="str" cm="1">
+        <f t="array" aca="1" ref="E74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F74" t="str" cm="1">
+        <f t="array" aca="1" ref="F74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G74" t="str" cm="1">
+        <f t="array" aca="1" ref="G74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H74" t="str" cm="1">
+        <f t="array" aca="1" ref="H74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I74" t="str" cm="1">
+        <f t="array" aca="1" ref="I74" ca="1">INDIRECT(ADDRESS(1,$A74*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A74*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>61</v>
+      </c>
+      <c r="B75" t="str" cm="1">
+        <f t="array" aca="1" ref="B75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C75" t="str" cm="1">
+        <f t="array" aca="1" ref="C75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D75" t="str" cm="1">
+        <f t="array" aca="1" ref="D75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E75" t="str" cm="1">
+        <f t="array" aca="1" ref="E75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F75" t="str" cm="1">
+        <f t="array" aca="1" ref="F75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G75" t="str" cm="1">
+        <f t="array" aca="1" ref="G75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H75" t="str" cm="1">
+        <f t="array" aca="1" ref="H75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I75" t="str" cm="1">
+        <f t="array" aca="1" ref="I75" ca="1">INDIRECT(ADDRESS(1,$A75*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A75*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>62</v>
+      </c>
+      <c r="B76" t="str" cm="1">
+        <f t="array" aca="1" ref="B76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C76" t="str" cm="1">
+        <f t="array" aca="1" ref="C76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D76" t="str" cm="1">
+        <f t="array" aca="1" ref="D76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E76" t="str" cm="1">
+        <f t="array" aca="1" ref="E76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F76" t="str" cm="1">
+        <f t="array" aca="1" ref="F76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G76" t="str" cm="1">
+        <f t="array" aca="1" ref="G76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H76" t="str" cm="1">
+        <f t="array" aca="1" ref="H76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I76" t="str" cm="1">
+        <f t="array" aca="1" ref="I76" ca="1">INDIRECT(ADDRESS(1,$A76*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A76*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77" t="str" cm="1">
+        <f t="array" aca="1" ref="B77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C77" t="str" cm="1">
+        <f t="array" aca="1" ref="C77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D77" t="str" cm="1">
+        <f t="array" aca="1" ref="D77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E77" t="str" cm="1">
+        <f t="array" aca="1" ref="E77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F77" t="str" cm="1">
+        <f t="array" aca="1" ref="F77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G77" t="str" cm="1">
+        <f t="array" aca="1" ref="G77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H77" t="str" cm="1">
+        <f t="array" aca="1" ref="H77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I77" t="str" cm="1">
+        <f t="array" aca="1" ref="I77" ca="1">INDIRECT(ADDRESS(1,$A77*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A77*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>64</v>
+      </c>
+      <c r="B78" t="str" cm="1">
+        <f t="array" aca="1" ref="B78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C78" t="str" cm="1">
+        <f t="array" aca="1" ref="C78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D78" t="str" cm="1">
+        <f t="array" aca="1" ref="D78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E78" t="str" cm="1">
+        <f t="array" aca="1" ref="E78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F78" t="str" cm="1">
+        <f t="array" aca="1" ref="F78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G78" t="str" cm="1">
+        <f t="array" aca="1" ref="G78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H78" t="str" cm="1">
+        <f t="array" aca="1" ref="H78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I78" t="str" cm="1">
+        <f t="array" aca="1" ref="I78" ca="1">INDIRECT(ADDRESS(1,$A78*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A78*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>65</v>
+      </c>
+      <c r="B79" t="str" cm="1">
+        <f t="array" aca="1" ref="B79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C79" t="str" cm="1">
+        <f t="array" aca="1" ref="C79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D79" t="str" cm="1">
+        <f t="array" aca="1" ref="D79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E79" t="str" cm="1">
+        <f t="array" aca="1" ref="E79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F79" t="str" cm="1">
+        <f t="array" aca="1" ref="F79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G79" t="str" cm="1">
+        <f t="array" aca="1" ref="G79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H79" t="str" cm="1">
+        <f t="array" aca="1" ref="H79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I79" t="str" cm="1">
+        <f t="array" aca="1" ref="I79" ca="1">INDIRECT(ADDRESS(1,$A79*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A79*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>66</v>
+      </c>
+      <c r="B80" t="str" cm="1">
+        <f t="array" aca="1" ref="B80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="C80" t="str" cm="1">
+        <f t="array" aca="1" ref="C80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="D80" t="str" cm="1">
+        <f t="array" aca="1" ref="D80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="E80" t="str" cm="1">
+        <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="F80" t="str" cm="1">
+        <f t="array" aca="1" ref="F80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="G80" t="str" cm="1">
+        <f t="array" aca="1" ref="G80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="H80" t="str" cm="1">
+        <f t="array" aca="1" ref="H80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+      <c r="I80" t="str" cm="1">
+        <f t="array" aca="1" ref="I80" ca="1">INDIRECT(ADDRESS(1,$A80*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A80*8+COLUMN()-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:DG16 DH13:IO1048576 DH12:FL12 FN12:IO12 DH11:IO11 IP1:MF1048576">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="DH3:IO11 A3:DG12 A13 J13:DG13 A14:DG15 A16:A87 J16:DG16 B16:I80">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DH1:IO3 DH4:DY10 EG4:IO10">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DZ4:EF10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="IP3:MF1048576 DH12:FL12 FN12:IO12 DH13:IO1048576 LO1:MF2">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fonts/fonts.xlsx
+++ b/fonts/fonts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\polyZ\Documents\wifiSLAM\fonts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DDAF6-00C2-4E3E-BBCE-5D1911466A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137DD663-8913-499B-AA82-3756216600F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{64601A2C-3A20-447B-8D46-B4E88D87A8FE}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -605,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9287846-190F-4971-8F05-146BCFC46803}">
   <dimension ref="A1:MF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1905,22 +1909,22 @@
       </c>
       <c r="LK1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LM1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="LN1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO1" t="str">
-        <f t="shared" ref="LJ1:LP1" si="6">DEC2HEX(LO3*8+LO4*4+LO5*2+LO6)</f>
+        <f t="shared" ref="LO1:LP1" si="6">DEC2HEX(LO3*8+LO4*4+LO5*2+LO6)</f>
         <v>0</v>
       </c>
       <c r="LP1" t="str">
@@ -3291,15 +3295,15 @@
       </c>
       <c r="LM2" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="LN2" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="LO2" t="str">
-        <f t="shared" ref="LJ2:LP2" si="15">DEC2HEX(LO7*8+LO8*4+LO9*2+LO10)</f>
-        <v>0</v>
+        <f t="shared" ref="LO2:LP2" si="15">DEC2HEX(LO7*8+LO8*4+LO9*2+LO10)</f>
+        <v>8</v>
       </c>
       <c r="LP2" t="str">
         <f t="shared" si="15"/>
@@ -5359,6 +5363,27 @@
       <c r="LI4">
         <v>0</v>
       </c>
+      <c r="LJ4">
+        <v>0</v>
+      </c>
+      <c r="LK4">
+        <v>0</v>
+      </c>
+      <c r="LL4">
+        <v>0</v>
+      </c>
+      <c r="LM4">
+        <v>0</v>
+      </c>
+      <c r="LN4">
+        <v>0</v>
+      </c>
+      <c r="LO4">
+        <v>0</v>
+      </c>
+      <c r="LP4">
+        <v>0</v>
+      </c>
       <c r="LQ4">
         <v>0</v>
       </c>
@@ -6324,6 +6349,27 @@
       <c r="LI5">
         <v>0</v>
       </c>
+      <c r="LJ5">
+        <v>0</v>
+      </c>
+      <c r="LK5">
+        <v>0</v>
+      </c>
+      <c r="LL5">
+        <v>0</v>
+      </c>
+      <c r="LM5">
+        <v>1</v>
+      </c>
+      <c r="LN5">
+        <v>0</v>
+      </c>
+      <c r="LO5">
+        <v>0</v>
+      </c>
+      <c r="LP5">
+        <v>0</v>
+      </c>
       <c r="LQ5">
         <v>0</v>
       </c>
@@ -7289,6 +7335,27 @@
       <c r="LI6">
         <v>0</v>
       </c>
+      <c r="LJ6">
+        <v>0</v>
+      </c>
+      <c r="LK6">
+        <v>0</v>
+      </c>
+      <c r="LL6">
+        <v>0</v>
+      </c>
+      <c r="LM6">
+        <v>1</v>
+      </c>
+      <c r="LN6">
+        <v>0</v>
+      </c>
+      <c r="LO6">
+        <v>0</v>
+      </c>
+      <c r="LP6">
+        <v>0</v>
+      </c>
       <c r="LQ6">
         <v>0</v>
       </c>
@@ -8254,6 +8321,27 @@
       <c r="LI7">
         <v>0</v>
       </c>
+      <c r="LJ7">
+        <v>0</v>
+      </c>
+      <c r="LK7">
+        <v>1</v>
+      </c>
+      <c r="LL7">
+        <v>1</v>
+      </c>
+      <c r="LM7">
+        <v>1</v>
+      </c>
+      <c r="LN7">
+        <v>1</v>
+      </c>
+      <c r="LO7">
+        <v>1</v>
+      </c>
+      <c r="LP7">
+        <v>0</v>
+      </c>
       <c r="LQ7">
         <v>0</v>
       </c>
@@ -9219,6 +9307,27 @@
       <c r="LI8">
         <v>0</v>
       </c>
+      <c r="LJ8">
+        <v>0</v>
+      </c>
+      <c r="LK8">
+        <v>0</v>
+      </c>
+      <c r="LL8">
+        <v>0</v>
+      </c>
+      <c r="LM8">
+        <v>1</v>
+      </c>
+      <c r="LN8">
+        <v>0</v>
+      </c>
+      <c r="LO8">
+        <v>0</v>
+      </c>
+      <c r="LP8">
+        <v>0</v>
+      </c>
       <c r="LQ8">
         <v>0</v>
       </c>
@@ -10184,6 +10293,27 @@
       <c r="LI9">
         <v>0</v>
       </c>
+      <c r="LJ9">
+        <v>0</v>
+      </c>
+      <c r="LK9">
+        <v>0</v>
+      </c>
+      <c r="LL9">
+        <v>0</v>
+      </c>
+      <c r="LM9">
+        <v>1</v>
+      </c>
+      <c r="LN9">
+        <v>0</v>
+      </c>
+      <c r="LO9">
+        <v>0</v>
+      </c>
+      <c r="LP9">
+        <v>0</v>
+      </c>
       <c r="LQ9">
         <v>0</v>
       </c>
@@ -11146,6 +11276,27 @@
       <c r="LI10">
         <v>0</v>
       </c>
+      <c r="LJ10">
+        <v>0</v>
+      </c>
+      <c r="LK10">
+        <v>0</v>
+      </c>
+      <c r="LL10">
+        <v>0</v>
+      </c>
+      <c r="LM10">
+        <v>0</v>
+      </c>
+      <c r="LN10">
+        <v>0</v>
+      </c>
+      <c r="LO10">
+        <v>0</v>
+      </c>
+      <c r="LP10">
+        <v>0</v>
+      </c>
       <c r="LQ10">
         <v>0</v>
       </c>
@@ -11273,6 +11424,9 @@
       </c>
       <c r="LA11" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="LI11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:344" x14ac:dyDescent="0.55000000000000004">
@@ -12769,23 +12923,23 @@
       </c>
       <c r="D54" t="str" cm="1">
         <f t="array" aca="1" ref="D54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="E54" t="str" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="F54" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
-        <v>00</v>
+        <v>7C</v>
       </c>
       <c r="G54" t="str" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
-        <v>00</v>
+        <v>10</v>
       </c>
       <c r="H54" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
-        <v>00</v>
+        <v>08</v>
       </c>
       <c r="I54" t="str" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">INDIRECT(ADDRESS(1,$A54*8+COLUMN()-1))&amp;INDIRECT(ADDRESS(2,$A54*8+COLUMN()-1))</f>
@@ -13791,16 +13945,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="DH3:IO11 A3:DG12 A13 J13:DG13 A14:DG15 A16:A87 J16:DG16 B16:I80">
+  <conditionalFormatting sqref="DH3:IO11 A3:DG12 A13 J13:DG13 A14:DG15 J16:DG16 B16:I80 A16:A87">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IP3:MF1048576 DH12:FL12 FN12:IO12 DH13:IO1048576 LO1:MF2">
+  <conditionalFormatting sqref="LO1:MF2 IP3:MF1048576 DH12:FL12 FN12:IO12 DH13:IO1048576">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>